--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 AR.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 AR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ARCH-205</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>2.15%</t>
   </si>
   <si>
+    <t>2.92%</t>
+  </si>
+  <si>
     <t>ARCH-250</t>
   </si>
   <si>
@@ -178,6 +184,9 @@
     <t>0.81%</t>
   </si>
   <si>
+    <t>0.80%</t>
+  </si>
+  <si>
     <t>ARCH-305</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>2.38%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>ARCH-335</t>
   </si>
   <si>
@@ -274,6 +286,9 @@
     <t>1.41%</t>
   </si>
   <si>
+    <t>0.70%</t>
+  </si>
+  <si>
     <t>ARCH-405</t>
   </si>
   <si>
@@ -337,6 +352,9 @@
     <t>10.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>ARCH-435</t>
   </si>
   <si>
@@ -397,6 +415,9 @@
     <t>1.36%</t>
   </si>
   <si>
+    <t>1.34%</t>
+  </si>
+  <si>
     <t>ARCH-485</t>
   </si>
   <si>
@@ -445,9 +466,6 @@
     <t>54.55%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>ARCH-607</t>
   </si>
   <si>
@@ -475,9 +493,6 @@
     <t>93.33%</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>ARCH-631</t>
   </si>
   <si>
@@ -589,6 +604,9 @@
     <t>21.43%</t>
   </si>
   <si>
+    <t>26.32%</t>
+  </si>
+  <si>
     <t>JENKS M</t>
   </si>
   <si>
@@ -619,6 +637,9 @@
     <t>5.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>ARTS-115</t>
   </si>
   <si>
@@ -634,6 +655,9 @@
     <t>2.56%</t>
   </si>
   <si>
+    <t>4.88%</t>
+  </si>
+  <si>
     <t>REID R</t>
   </si>
   <si>
@@ -670,6 +694,9 @@
     <t>1.66%</t>
   </si>
   <si>
+    <t>4.32%</t>
+  </si>
+  <si>
     <t>ARTS-212</t>
   </si>
   <si>
@@ -679,6 +706,9 @@
     <t>57.14%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>FINCH S</t>
   </si>
   <si>
@@ -700,6 +730,9 @@
     <t>4.65%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>ARTS-304</t>
   </si>
   <si>
@@ -730,6 +763,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>VIGUS G</t>
   </si>
   <si>
@@ -739,12 +775,18 @@
     <t>18.52%</t>
   </si>
   <si>
+    <t>12.90%</t>
+  </si>
+  <si>
     <t>ARTS-311</t>
   </si>
   <si>
     <t>85.71%</t>
   </si>
   <si>
+    <t>12.50%</t>
+  </si>
+  <si>
     <t>ARTS-325</t>
   </si>
   <si>
@@ -769,6 +811,9 @@
     <t>1.64%</t>
   </si>
   <si>
+    <t>11.59%</t>
+  </si>
+  <si>
     <t>ARTS-353</t>
   </si>
   <si>
@@ -859,6 +904,9 @@
     <t>3.45%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>RYBKOWSKI Z</t>
   </si>
   <si>
@@ -919,6 +967,9 @@
     <t>12.61%</t>
   </si>
   <si>
+    <t>4.03%</t>
+  </si>
+  <si>
     <t>COSC-275</t>
   </si>
   <si>
@@ -934,6 +985,9 @@
     <t>39.47%</t>
   </si>
   <si>
+    <t>15.56%</t>
+  </si>
+  <si>
     <t>36.00%</t>
   </si>
   <si>
@@ -952,6 +1006,9 @@
     <t>56.06%</t>
   </si>
   <si>
+    <t>1.49%</t>
+  </si>
+  <si>
     <t>COSC-321</t>
   </si>
   <si>
@@ -970,6 +1027,9 @@
     <t>6.31%</t>
   </si>
   <si>
+    <t>10.48%</t>
+  </si>
+  <si>
     <t>COSC-323</t>
   </si>
   <si>
@@ -1027,6 +1087,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>4.08%</t>
+  </si>
+  <si>
     <t>COSC-353</t>
   </si>
   <si>
@@ -1048,6 +1111,9 @@
     <t>35.80%</t>
   </si>
   <si>
+    <t>6.90%</t>
+  </si>
+  <si>
     <t>COSC-364</t>
   </si>
   <si>
@@ -1078,6 +1144,9 @@
     <t>21.51%</t>
   </si>
   <si>
+    <t>4.12%</t>
+  </si>
+  <si>
     <t>COSC-381</t>
   </si>
   <si>
@@ -1093,6 +1162,9 @@
     <t>8.20%</t>
   </si>
   <si>
+    <t>1.61%</t>
+  </si>
+  <si>
     <t>COSC-421</t>
   </si>
   <si>
@@ -1111,9 +1183,6 @@
     <t>SMITH J</t>
   </si>
   <si>
-    <t>26.32%</t>
-  </si>
-  <si>
     <t>42.11%</t>
   </si>
   <si>
@@ -1144,6 +1213,9 @@
     <t>1.85%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>GRISHAM R</t>
   </si>
   <si>
@@ -1186,6 +1258,9 @@
     <t>4.40%</t>
   </si>
   <si>
+    <t>1.09%</t>
+  </si>
+  <si>
     <t>COSC-477</t>
   </si>
   <si>
@@ -1201,6 +1276,9 @@
     <t>1.69%</t>
   </si>
   <si>
+    <t>3.28%</t>
+  </si>
+  <si>
     <t>COSC-483</t>
   </si>
   <si>
@@ -1315,6 +1393,9 @@
     <t>3.52%</t>
   </si>
   <si>
+    <t>4.56%</t>
+  </si>
+  <si>
     <t>98.87%</t>
   </si>
   <si>
@@ -1348,6 +1429,9 @@
     <t>34.29%</t>
   </si>
   <si>
+    <t>2.78%</t>
+  </si>
+  <si>
     <t>ENDS-115</t>
   </si>
   <si>
@@ -1363,9 +1447,6 @@
     <t>63.89%</t>
   </si>
   <si>
-    <t>2.78%</t>
-  </si>
-  <si>
     <t>35.29%</t>
   </si>
   <si>
@@ -1426,7 +1507,7 @@
     <t>59.09%</t>
   </si>
   <si>
-    <t>4.55%</t>
+    <t>4.35%</t>
   </si>
   <si>
     <t>LAND-320</t>
@@ -1591,9 +1672,6 @@
     <t>NOH Y</t>
   </si>
   <si>
-    <t>12.50%</t>
-  </si>
-  <si>
     <t>4.17%</t>
   </si>
   <si>
@@ -1618,6 +1696,9 @@
     <t>4.26%</t>
   </si>
   <si>
+    <t>2.08%</t>
+  </si>
+  <si>
     <t>URPN-310</t>
   </si>
   <si>
@@ -1772,6 +1853,9 @@
   </si>
   <si>
     <t>46.67%</t>
+  </si>
+  <si>
+    <t>31.82%</t>
   </si>
   <si>
     <t>VIST-474</t>
@@ -1866,12 +1950,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2165,15 +2248,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H554"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2198,6064 +2281,6751 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.944</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>3.857</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>3.062</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>3.556</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>2.875</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>3.444</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>2.908</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
         <v>3.649</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
         <v>2.9317</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>3.2487</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>3.562</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
         <v>3.412</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" t="n">
         <v>3.118</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" t="n">
         <v>2.619</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" t="n">
         <v>2.846</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" t="n">
         <v>3.6315</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
         <v>3.389</v>
       </c>
       <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C41" t="n">
         <v>3.444</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C42" t="n">
         <v>3.895</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C43" t="n">
         <v>3.21</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
         <v>3.714</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C49" t="n">
         <v>3.7045</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C52" t="n">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C56" t="n">
         <v>3.526</v>
       </c>
       <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" t="s">
         <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>104</v>
       </c>
       <c r="C57" t="n">
         <v>3.595</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C60" t="n">
         <v>3.923</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C63" t="n">
         <v>3.706</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C66" t="n">
         <v>3.8285</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
         <v>3.6</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" t="n">
         <v>2.941</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C76" t="n">
         <v>3.222</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C79" t="n">
         <v>3.9</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C81" t="n">
         <v>3.273</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C82" t="n">
         <v>3.556</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
         <v>3.778</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C86" t="n">
         <v>3.444</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" t="n">
         <v>3.778</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91" t="n">
         <v>3.444</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C97" t="n">
         <v>3.933</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C100" t="n">
         <v>2.558</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F100" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G100" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C103" t="n">
         <v>3.667</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C106" t="n">
         <v>3.818</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C109" t="n">
         <v>3.8</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C119" t="n">
         <v>3.5</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F119" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C122" t="n">
         <v>3.391</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C134" t="n">
         <v>3.267</v>
       </c>
       <c r="D134" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E134" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C137" t="n">
         <v>3.5</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C140" t="n">
         <v>3.4</v>
       </c>
       <c r="D140" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E140" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C145" t="n">
         <v>3.4</v>
       </c>
       <c r="D145" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E145" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C149" t="n">
         <v>3.143</v>
       </c>
       <c r="D149" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E149" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F149" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C153" t="n">
         <v>3.85</v>
       </c>
       <c r="D153" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E153" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C154" t="n">
         <v>3.8305</v>
       </c>
       <c r="D154" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E154" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C157" t="n">
         <v>3.104</v>
       </c>
       <c r="D157" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E157" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C158" t="n">
         <v>3.684</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E158" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C159" t="n">
         <v>3.684</v>
       </c>
       <c r="D159" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E159" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C162" t="n">
         <v>3.4893</v>
       </c>
       <c r="D162" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F162" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G162" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I162" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C165" t="n">
         <v>3.571</v>
       </c>
       <c r="D165" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E165" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C166" t="n">
         <v>3.706</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E166" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C169" t="n">
         <v>3.3735</v>
       </c>
       <c r="D169" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E169" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F169" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C172" t="n">
         <v>3.056</v>
       </c>
       <c r="D172" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E172" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F172" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C175" t="n">
         <v>3.333</v>
       </c>
       <c r="D175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C178" t="n">
         <v>3.2</v>
       </c>
       <c r="D178" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E178" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F178" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C179" t="n">
         <v>3.259</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E179" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F179" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C182" t="n">
         <v>3.786</v>
       </c>
       <c r="D182" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C185" t="n">
         <v>3.882</v>
       </c>
       <c r="D185" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E185" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
         <v>12</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C188" t="n">
         <v>3.055</v>
       </c>
       <c r="D188" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E188" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F188" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G188" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H188" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C191" t="n">
         <v>3.19</v>
       </c>
       <c r="D191" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E191" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F191" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C194" t="n">
         <v>3.278</v>
       </c>
       <c r="D194" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C197" t="n">
         <v>3.6</v>
       </c>
       <c r="D197" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E197" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C199" t="n">
         <v>3.882</v>
       </c>
       <c r="D199" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E199" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H199" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C200" t="n">
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C203" t="n">
         <v>3.857</v>
       </c>
       <c r="D203" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E203" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C205" t="n">
         <v>3.882</v>
       </c>
       <c r="D205" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E205" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C209" t="n">
         <v>3.786</v>
       </c>
       <c r="D209" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E209" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C210" t="n">
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E210" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F210" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C213" t="n">
         <v>3.9848</v>
       </c>
       <c r="D213" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C219" t="n">
         <v>3.45</v>
       </c>
       <c r="D219" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E219" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F219" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G219" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C220" t="n">
         <v>3.828</v>
       </c>
       <c r="D220" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="E220" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F220" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H220" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I220" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C221" t="n">
         <v>3.517</v>
       </c>
       <c r="D221" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E221" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I221" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C222" t="n">
         <v>3.84</v>
       </c>
       <c r="D222" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E222" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C225" t="n">
         <v>3.0385</v>
       </c>
       <c r="D225" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E225" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F225" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="G225" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="H225" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>309</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C228" t="n">
         <v>2.235</v>
       </c>
       <c r="D228" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E228" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F228" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G228" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H228" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I228" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C231" t="n">
         <v>2.648</v>
       </c>
       <c r="D231" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E231" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F231" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H231" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I231" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C232" t="n">
         <v>3.16</v>
       </c>
       <c r="D232" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E232" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="F232" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C235" t="n">
         <v>2.773</v>
       </c>
       <c r="D235" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E235" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H235" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I235" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C238" t="n">
         <v>3.083</v>
       </c>
       <c r="D238" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="E238" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F238" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G238" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="H238" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I238" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C241" t="n">
         <v>2.7183</v>
       </c>
       <c r="D241" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E241" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F241" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G241" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H241" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I241" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C244" t="n">
         <v>2.94</v>
       </c>
       <c r="D244" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E244" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="F244" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G244" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="H244" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>342</v>
+      </c>
+      <c r="I244" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C247" t="n">
         <v>3.63</v>
       </c>
       <c r="D247" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="E247" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C250" t="n">
         <v>3.021</v>
       </c>
       <c r="D250" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E250" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F250" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G250" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C253" t="n">
         <v>3.167</v>
       </c>
       <c r="D253" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E253" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C254" t="n">
         <v>2.685</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="E254" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="F254" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C257" t="n">
         <v>3.2572</v>
       </c>
       <c r="D257" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="E257" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H257" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C260" t="n">
         <v>3.25</v>
       </c>
       <c r="D260" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E260" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C261" t="n">
         <v>2.8937</v>
       </c>
       <c r="D261" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="E261" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="F261" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="G261" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H261" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I261" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C264" t="n">
         <v>3.279</v>
       </c>
       <c r="D264" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="E264" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F264" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I264" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C267" t="n">
         <v>2.9695</v>
       </c>
       <c r="D267" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="E267" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F267" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H267" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>295</v>
+      </c>
+      <c r="I267" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C270" t="n">
         <v>2.947</v>
       </c>
       <c r="D270" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="E270" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="F270" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G270" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H270" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C273" t="n">
         <v>3.4</v>
       </c>
       <c r="D273" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="E273" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H273" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C276" t="n">
         <v>3.786</v>
       </c>
       <c r="D276" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E276" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F276" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G276" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H276" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I276" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C279" t="n">
         <v>3.2405</v>
       </c>
       <c r="D279" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E279" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="F279" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="G279" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H279" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I279" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C280" t="n">
         <v>3.353</v>
       </c>
       <c r="D280" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E280" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F280" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G280" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H280" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C283" t="n">
         <v>3.393</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E283" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F283" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H283" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I283" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C286" t="n">
         <v>3.324</v>
       </c>
       <c r="D286" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="E286" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G286" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H286" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="C289" t="n">
         <v>3.1603</v>
       </c>
       <c r="D289" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="E289" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F289" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H289" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>413</v>
+      </c>
+      <c r="I289" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C292" t="n">
         <v>2.424</v>
       </c>
       <c r="D292" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="E292" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="F292" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="G292" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="H292" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>419</v>
+      </c>
+      <c r="I292" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="C295" t="n">
         <v>3.557</v>
       </c>
       <c r="D295" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="E295" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="F295" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H295" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I295" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C298" t="n">
         <v>3.714</v>
       </c>
       <c r="D298" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E298" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F298" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="G298" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H298" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C299" t="n">
         <v>3.467</v>
       </c>
       <c r="D299" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E299" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F299" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H299" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C302" t="n">
         <v>3.274</v>
       </c>
       <c r="D302" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E302" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="F302" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="G302" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H302" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="B305" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C305" t="n">
         <v>2.667</v>
       </c>
       <c r="D305" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E305" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F305" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="G305" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H305" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C308" t="n">
         <v>3.375</v>
       </c>
       <c r="D308" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E308" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="F308" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G308" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H308" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C311" t="n">
         <v>3.364</v>
       </c>
       <c r="D311" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="E311" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="F311" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G311" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C314" t="n">
         <v>3.591</v>
       </c>
       <c r="D314" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="E314" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="F314" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G314" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H314" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C317" t="n">
         <v>3.5</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E317" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H317" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C320" t="n">
         <v>3.304</v>
       </c>
       <c r="D320" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E320" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F320" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="G320" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H320" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C323" t="n">
         <v>3.21</v>
       </c>
       <c r="D323" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="E323" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F323" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="G323" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H323" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I323" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C326" t="n">
         <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E326" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F326" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G326" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H326" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C329" t="n">
         <v>3.714</v>
       </c>
       <c r="D329" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E329" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F329" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G329" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H329" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C332" t="n">
         <v>3.391</v>
       </c>
       <c r="D332" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E332" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F332" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G332" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H332" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C335" t="n">
         <v>3.018</v>
       </c>
       <c r="D335" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="E335" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="F335" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="G335" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="H335" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>458</v>
+      </c>
+      <c r="I335" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="B336" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C336" t="n">
         <v>3.9714</v>
       </c>
       <c r="D336" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="E336" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="F336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H336" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="I336" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="B339" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
       <c r="D339" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E339" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="F339" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G339" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H339" t="s">
+        <v>13</v>
+      </c>
+      <c r="I339" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C340" t="n">
         <v>3.534</v>
       </c>
       <c r="D340" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="E340" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="F340" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G340" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H340" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C341" t="n">
         <v>2.941</v>
       </c>
       <c r="D341" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E341" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F341" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="G341" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H341" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I341" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C344" t="n">
         <v>3.297</v>
       </c>
       <c r="D344" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E344" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F344" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G344" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="H344" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="B345" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C345" t="n">
         <v>3.7</v>
       </c>
       <c r="D345" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="E345" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F345" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G345" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H345" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I345" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="B346" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C346" t="n">
         <v>3.3055</v>
       </c>
       <c r="D346" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E346" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="F346" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="G346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H346" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C347" t="n">
         <v>3.294</v>
       </c>
       <c r="D347" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="E347" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="F347" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G347" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H347" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I347" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C350" t="n">
         <v>4</v>
       </c>
       <c r="D350" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E350" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F350" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G350" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H350" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="C353" t="n">
         <v>3.854</v>
       </c>
       <c r="D353" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="E353" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F353" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="G353" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H353" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>482</v>
+      </c>
+      <c r="I353" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C356" t="n">
         <v>2.747</v>
       </c>
       <c r="D356" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="E356" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="F356" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="G356" t="s">
+        <v>488</v>
+      </c>
+      <c r="H356" t="s">
+        <v>489</v>
+      </c>
+      <c r="I356" t="s">
         <v>461</v>
       </c>
-      <c r="H356" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C359" t="n">
         <v>3.2</v>
       </c>
       <c r="D359" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E359" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F359" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H359" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I359" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="B360" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C360" t="n">
         <v>3.467</v>
       </c>
       <c r="D360" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E360" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F360" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="G360" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H360" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="B363" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C363" t="n">
         <v>3.75</v>
       </c>
       <c r="D363" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E363" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F363" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G363" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H363" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="B366" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C366" t="n">
         <v>3.545</v>
       </c>
       <c r="D366" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="E366" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F366" t="s">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="G366" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H366" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I366" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="B369" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="C369" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>171</v>
+      </c>
+      <c r="E369" t="s">
+        <v>474</v>
+      </c>
+      <c r="F369" t="s">
+        <v>111</v>
+      </c>
+      <c r="G369" t="s">
+        <v>13</v>
+      </c>
+      <c r="H369" t="s">
+        <v>13</v>
+      </c>
+      <c r="I369" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="B370" t="s">
+        <v>499</v>
+      </c>
+      <c r="C370" t="n">
         <v>3.5</v>
       </c>
-      <c r="D369" t="s">
-        <v>28</v>
-      </c>
-      <c r="E369" t="s">
-        <v>28</v>
-      </c>
-      <c r="F369" t="s">
-        <v>12</v>
-      </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
-      <c r="H369" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>466</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.1</v>
-      </c>
       <c r="D370" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="E370" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="F370" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G370" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H370" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I370" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="B373" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C373" t="n">
         <v>3.444</v>
       </c>
       <c r="D373" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E373" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F373" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G373" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H373" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I373" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="B374" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C374" t="n">
         <v>3.462</v>
       </c>
       <c r="D374" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E374" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="F374" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G374" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H374" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="B377" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C377" t="n">
         <v>3.6</v>
       </c>
       <c r="D377" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E377" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H377" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="B380" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C380" t="n">
         <v>3.625</v>
       </c>
       <c r="D380" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="E380" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F380" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G380" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H380" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="B383" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C383" t="n">
         <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E383" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F383" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G383" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H383" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="B386" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C386" t="n">
         <v>3.857</v>
       </c>
       <c r="D386" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E386" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F386" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G386" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H386" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
       <c r="A388" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
       <c r="B389" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C389" t="n">
         <v>3.786</v>
       </c>
       <c r="D389" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E389" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F389" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G389" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H389" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="B392" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C392" t="n">
         <v>3.625</v>
       </c>
       <c r="D392" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="E392" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F392" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G392" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H392" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I392" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="B395" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C395" t="n">
         <v>4</v>
       </c>
       <c r="D395" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E395" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F395" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G395" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H395" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="B398" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C398" t="n">
         <v>4</v>
       </c>
       <c r="D398" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H398" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="B401" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="C401" t="n">
         <v>4</v>
       </c>
       <c r="D401" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E401" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F401" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G401" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H401" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I401" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="A403" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="B404" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="C404" t="n">
         <v>3.828</v>
       </c>
       <c r="D404" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="E404" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="F404" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G404" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H404" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I404" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
       <c r="A406" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="B407" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C407" t="n">
         <v>3.737</v>
       </c>
       <c r="D407" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E407" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="F407" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G407" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H407" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I407" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
       <c r="A409" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="B410" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C410" t="n">
         <v>3.625</v>
       </c>
       <c r="D410" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="E410" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F410" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G410" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H410" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="A412" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="B413" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C413" t="n">
         <v>3.556</v>
       </c>
       <c r="D413" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E413" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F413" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G413" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H413" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="A415" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="B416" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C416" t="n">
         <v>3.632</v>
       </c>
       <c r="D416" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E416" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F416" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G416" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="A418" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="B419" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C419" t="n">
         <v>3.846</v>
       </c>
       <c r="D419" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="E419" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F419" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G419" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H419" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I419" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
       <c r="A421" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
       <c r="B422" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C422" t="n">
         <v>3.833</v>
       </c>
       <c r="D422" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E422" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F422" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G422" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H422" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
       <c r="A424" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
       <c r="B425" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C425" t="n">
         <v>3.833</v>
       </c>
       <c r="D425" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E425" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F425" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G425" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H425" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I425" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
       <c r="A427" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="B428" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C428" t="n">
         <v>3.667</v>
       </c>
       <c r="D428" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E428" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F428" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G428" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H428" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I428" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
       <c r="A430" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="B431" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C431" t="n">
         <v>3.389</v>
       </c>
       <c r="D431" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E431" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F431" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G431" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H431" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I431" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
       <c r="A433" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="B434" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C434" t="n">
         <v>3.312</v>
       </c>
       <c r="D434" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E434" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F434" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G434" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H434" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I434" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="B437" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C437" t="n">
         <v>3.9</v>
       </c>
       <c r="D437" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E437" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F437" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G437" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H437" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I437" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
       <c r="A439" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="B440" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C440" t="n">
         <v>3.364</v>
       </c>
       <c r="D440" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E440" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="F440" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G440" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H440" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="B443" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C443" t="n">
         <v>4</v>
       </c>
       <c r="D443" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E443" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F443" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G443" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H443" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="B444" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C444" t="n">
         <v>4</v>
       </c>
       <c r="D444" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E444" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F444" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G444" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H444" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="B447" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C447" t="n">
         <v>3.2</v>
       </c>
       <c r="D447" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E447" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="F447" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="G447" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H447" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I447" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
       <c r="B448" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C448" t="n">
         <v>2.7</v>
       </c>
       <c r="D448" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E448" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F448" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G448" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H448" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I448" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
       <c r="B451" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C451" t="n">
         <v>3</v>
       </c>
       <c r="D451" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E451" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F451" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G451" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H451" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I451" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
       <c r="B454" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C454" t="n">
         <v>3.312</v>
       </c>
       <c r="D454" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E454" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F454" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G454" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H454" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I454" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="B455" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="C455" t="n">
         <v>3.792</v>
       </c>
       <c r="D455" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E455" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="F455" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="G455" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H455" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I455" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
       <c r="B458" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C458" t="n">
         <v>3.4</v>
       </c>
       <c r="D458" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E458" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F458" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G458" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H458" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I458" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
       <c r="B459" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C459" t="n">
         <v>3.249</v>
       </c>
       <c r="D459" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="E459" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F459" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G459" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="H459" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I459" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
       <c r="B462" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C462" t="n">
         <v>3.5</v>
       </c>
       <c r="D462" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E462" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="F462" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G462" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="H462" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I462" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="B465" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="C465" t="n">
         <v>3.692</v>
       </c>
       <c r="D465" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="E465" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="F465" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G465" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H465" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I465" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="B468" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C468" t="n">
         <v>3.143</v>
       </c>
       <c r="D468" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E468" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F468" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G468" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H468" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I468" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
       <c r="B469" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C469" t="n">
         <v>3.111</v>
       </c>
       <c r="D469" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E469" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F469" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G469" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H469" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I469" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
       <c r="A471" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="B472" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="C472" t="n">
         <v>3.611</v>
       </c>
       <c r="D472" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E472" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F472" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G472" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H472" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I472" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
       <c r="A474" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
       <c r="B475" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C475" t="n">
         <v>3</v>
       </c>
       <c r="D475" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E475" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F475" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G475" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H475" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I475" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
       <c r="A477" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
       <c r="B478" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="C478" t="n">
         <v>3.778</v>
       </c>
       <c r="D478" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="E478" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="F478" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="G478" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H478" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I478" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
       <c r="A480" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
       <c r="B481" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C481" t="n">
         <v>3.6</v>
       </c>
       <c r="D481" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="E481" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F481" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G481" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H481" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I481" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
       <c r="A483" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
       <c r="B484" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="C484" t="n">
         <v>2.925</v>
       </c>
       <c r="D484" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="E484" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F484" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G484" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="H484" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I484" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
       <c r="B487" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C487" t="n">
         <v>3.963</v>
       </c>
       <c r="D487" t="s">
+        <v>582</v>
+      </c>
+      <c r="E487" t="s">
+        <v>362</v>
+      </c>
+      <c r="F487" t="s">
+        <v>13</v>
+      </c>
+      <c r="G487" t="s">
+        <v>13</v>
+      </c>
+      <c r="H487" t="s">
+        <v>13</v>
+      </c>
+      <c r="I487" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="B490" t="s">
         <v>555</v>
-      </c>
-      <c r="E487" t="s">
-        <v>341</v>
-      </c>
-      <c r="F487" t="s">
-        <v>12</v>
-      </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
-      <c r="H487" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
-      <c r="B490" t="s">
-        <v>529</v>
       </c>
       <c r="C490" t="n">
         <v>4</v>
       </c>
       <c r="D490" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E490" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F490" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G490" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H490" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I490" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
       <c r="A492" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
       <c r="B493" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C493" t="n">
         <v>3.75</v>
       </c>
       <c r="D493" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E493" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F493" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G493" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H493" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
       <c r="A495" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
       <c r="B496" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C496" t="n">
         <v>3.263</v>
       </c>
       <c r="D496" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E496" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="F496" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G496" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H496" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
       <c r="B497" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="C497" t="n">
         <v>3.255</v>
       </c>
       <c r="D497" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="E497" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="F497" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="G497" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H497" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I497" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
       <c r="B498" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="C498" t="n">
         <v>3.263</v>
       </c>
       <c r="D498" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="E498" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F498" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G498" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H498" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
       <c r="A500" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
       <c r="B501" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C501" t="n">
         <v>3.2167</v>
       </c>
       <c r="D501" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="E501" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="F501" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="G501" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H501" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I501" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
       <c r="A503" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
       <c r="B504" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="C504" t="n">
         <v>3.2575</v>
       </c>
       <c r="D504" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="E504" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F504" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="G504" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H504" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
+        <v>597</v>
+      </c>
+      <c r="I504" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
       <c r="B507" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="C507" t="n">
         <v>3.611</v>
       </c>
       <c r="D507" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E507" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F507" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G507" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H507" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
       <c r="B508" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="C508" t="n">
         <v>3.8</v>
       </c>
       <c r="D508" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E508" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F508" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G508" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H508" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I508" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
       <c r="B509" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C509" t="n">
         <v>3.421</v>
       </c>
       <c r="D509" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E509" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F509" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G509" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H509" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I509" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
       <c r="B510" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="C510" t="n">
         <v>3.556</v>
       </c>
       <c r="D510" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E510" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F510" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G510" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H510" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I510" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
       <c r="B513" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="C513" t="n">
         <v>3.139</v>
       </c>
       <c r="D513" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="E513" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="F513" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G513" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H513" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I513" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
       <c r="B514" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C514" t="n">
         <v>3</v>
       </c>
       <c r="D514" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="E514" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F514" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="G514" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H514" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I514" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
       <c r="A516" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
       <c r="B517" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C517" t="n">
         <v>3.118</v>
       </c>
       <c r="D517" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="E517" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="F517" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G517" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H517" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I517" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
       <c r="B518" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="C518" t="n">
         <v>3.188</v>
       </c>
       <c r="D518" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E518" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F518" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="G518" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H518" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I518" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
       <c r="B521" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C521" t="n">
         <v>2.667</v>
       </c>
       <c r="D521" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="E521" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F521" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="G521" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H521" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I521" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
       <c r="A523" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
       <c r="B524" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C524" t="n">
         <v>3.333</v>
       </c>
       <c r="D524" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="E524" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F524" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G524" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H524" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I524" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
       <c r="B527" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C527" t="n">
         <v>3.389</v>
       </c>
       <c r="D527" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E527" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F527" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G527" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H527" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I527" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
       <c r="A529" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
       <c r="B530" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C530" t="n">
         <v>3.125</v>
       </c>
       <c r="D530" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E530" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="F530" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="G530" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H530" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I530" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
       <c r="A532" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
       <c r="B533" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C533" t="n">
         <v>3.458</v>
       </c>
       <c r="D533" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E533" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F533" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G533" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H533" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I533" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
       <c r="A535" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
       <c r="B536" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="C536" t="n">
         <v>3.538</v>
       </c>
       <c r="D536" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="E536" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F536" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G536" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H536" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I536" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
       <c r="A538" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
       <c r="B539" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="C539" t="n">
         <v>3.9</v>
       </c>
       <c r="D539" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E539" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F539" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G539" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H539" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I539" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
       <c r="A541" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
       <c r="B542" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="C542" t="n">
         <v>3.929</v>
       </c>
       <c r="D542" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E542" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F542" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G542" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H542" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I542" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
       <c r="A544" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
       <c r="B545" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="C545" t="n">
         <v>3.857</v>
       </c>
       <c r="D545" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E545" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F545" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G545" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H545" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I545" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
       <c r="A547" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
       <c r="B548" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="C548" t="n">
         <v>3.737</v>
       </c>
       <c r="D548" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E548" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="F548" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G548" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H548" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I548" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
       <c r="A550" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
       <c r="B551" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="C551" t="n">
         <v>3.471</v>
       </c>
       <c r="D551" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="E551" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F551" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G551" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H551" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I551" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
       <c r="A553" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
       <c r="B554" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="C554" t="n">
         <v>3.6</v>
       </c>
       <c r="D554" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E554" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F554" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G554" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H554" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I554" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 AR.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="616">
   <si>
     <t>Course</t>
   </si>
@@ -868,6 +868,12 @@
     <t>48.28%</t>
   </si>
   <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>DUFF M</t>
   </si>
   <si>
@@ -1105,6 +1111,12 @@
     <t>32.76%</t>
   </si>
   <si>
+    <t>COSC-440</t>
+  </si>
+  <si>
+    <t>76.19%</t>
+  </si>
+  <si>
     <t>COSC-442</t>
   </si>
   <si>
@@ -1727,6 +1739,27 @@
   </si>
   <si>
     <t>5.19%</t>
+  </si>
+  <si>
+    <t>VIST-284</t>
+  </si>
+  <si>
+    <t>SHANNON-SPARKS D</t>
+  </si>
+  <si>
+    <t>64.62%</t>
+  </si>
+  <si>
+    <t>26.15%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>3.08%</t>
+  </si>
+  <si>
+    <t>1.54%</t>
   </si>
   <si>
     <t>VIST-305</t>
@@ -2165,7 +2198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H554"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4786,117 +4819,117 @@
         <v>284</v>
       </c>
       <c r="C222" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D222" t="s">
+        <v>128</v>
+      </c>
+      <c r="E222" t="s">
+        <v>105</v>
+      </c>
+      <c r="F222" t="s">
+        <v>153</v>
+      </c>
+      <c r="G222" t="s">
+        <v>285</v>
+      </c>
+      <c r="H222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>286</v>
+      </c>
+      <c r="C223" t="n">
         <v>3.84</v>
       </c>
-      <c r="D222" t="s">
-        <v>285</v>
-      </c>
-      <c r="E222" t="s">
-        <v>286</v>
-      </c>
-      <c r="F222" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
-      <c r="H222" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
+      <c r="D223" t="s">
         <v>287</v>
       </c>
+      <c r="E223" t="s">
+        <v>288</v>
+      </c>
+      <c r="F223" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>288</v>
-      </c>
-      <c r="C225" t="n">
+      <c r="A225" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>290</v>
+      </c>
+      <c r="C226" t="n">
         <v>3.0385</v>
       </c>
-      <c r="D225" t="s">
-        <v>289</v>
-      </c>
-      <c r="E225" t="s">
-        <v>290</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="D226" t="s">
         <v>291</v>
       </c>
-      <c r="G225" t="s">
+      <c r="E226" t="s">
         <v>292</v>
       </c>
-      <c r="H225" t="s">
+      <c r="F226" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
+      <c r="G226" t="s">
         <v>294</v>
       </c>
+      <c r="H226" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>295</v>
-      </c>
-      <c r="C228" t="n">
+      <c r="A228" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>297</v>
+      </c>
+      <c r="C229" t="n">
         <v>2.235</v>
       </c>
-      <c r="D228" t="s">
-        <v>296</v>
-      </c>
-      <c r="E228" t="s">
-        <v>297</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="D229" t="s">
         <v>298</v>
       </c>
-      <c r="G228" t="s">
+      <c r="E229" t="s">
         <v>299</v>
       </c>
-      <c r="H228" t="s">
+      <c r="F229" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
+      <c r="G229" t="s">
         <v>301</v>
       </c>
+      <c r="H229" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>302</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2.648</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="A231" t="s">
         <v>303</v>
-      </c>
-      <c r="E231" t="s">
-        <v>304</v>
-      </c>
-      <c r="F231" t="s">
-        <v>305</v>
-      </c>
-      <c r="G231" t="s">
-        <v>196</v>
-      </c>
-      <c r="H231" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="B232" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C232" t="n">
-        <v>3.16</v>
+        <v>2.648</v>
       </c>
       <c r="D232" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="E232" t="s">
         <v>306</v>
@@ -4905,206 +4938,206 @@
         <v>307</v>
       </c>
       <c r="G232" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
+        <v>286</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>129</v>
+      </c>
+      <c r="E233" t="s">
         <v>308</v>
       </c>
+      <c r="F233" t="s">
+        <v>309</v>
+      </c>
+      <c r="G233" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>309</v>
-      </c>
-      <c r="C235" t="n">
+      <c r="A235" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="B236" t="s">
+        <v>311</v>
+      </c>
+      <c r="C236" t="n">
         <v>2.773</v>
       </c>
-      <c r="D235" t="s">
-        <v>310</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="D236" t="s">
+        <v>312</v>
+      </c>
+      <c r="E236" t="s">
+        <v>313</v>
+      </c>
+      <c r="F236" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>315</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="D239" t="s">
+        <v>316</v>
+      </c>
+      <c r="E239" t="s">
+        <v>317</v>
+      </c>
+      <c r="F239" t="s">
+        <v>318</v>
+      </c>
+      <c r="G239" t="s">
+        <v>319</v>
+      </c>
+      <c r="H239" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>321</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.7183</v>
+      </c>
+      <c r="D242" t="s">
+        <v>322</v>
+      </c>
+      <c r="E242" t="s">
+        <v>323</v>
+      </c>
+      <c r="F242" t="s">
+        <v>98</v>
+      </c>
+      <c r="G242" t="s">
+        <v>324</v>
+      </c>
+      <c r="H242" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="B245" t="s">
+        <v>273</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D245" t="s">
+        <v>327</v>
+      </c>
+      <c r="E245" t="s">
+        <v>328</v>
+      </c>
+      <c r="F245" t="s">
+        <v>329</v>
+      </c>
+      <c r="G245" t="s">
+        <v>330</v>
+      </c>
+      <c r="H245" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="B248" t="s">
+        <v>332</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>333</v>
+      </c>
+      <c r="E248" t="s">
+        <v>239</v>
+      </c>
+      <c r="F248" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" t="s">
+        <v>12</v>
+      </c>
+      <c r="H248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
         <v>311</v>
       </c>
-      <c r="F235" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
-      <c r="H235" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="B238" t="s">
-        <v>313</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="D238" t="s">
-        <v>314</v>
-      </c>
-      <c r="E238" t="s">
-        <v>315</v>
-      </c>
-      <c r="F238" t="s">
-        <v>316</v>
-      </c>
-      <c r="G238" t="s">
-        <v>317</v>
-      </c>
-      <c r="H238" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>319</v>
-      </c>
-      <c r="C241" t="n">
-        <v>2.7183</v>
-      </c>
-      <c r="D241" t="s">
-        <v>320</v>
-      </c>
-      <c r="E241" t="s">
-        <v>321</v>
-      </c>
-      <c r="F241" t="s">
-        <v>98</v>
-      </c>
-      <c r="G241" t="s">
-        <v>322</v>
-      </c>
-      <c r="H241" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>273</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="D244" t="s">
-        <v>325</v>
-      </c>
-      <c r="E244" t="s">
-        <v>326</v>
-      </c>
-      <c r="F244" t="s">
-        <v>327</v>
-      </c>
-      <c r="G244" t="s">
-        <v>328</v>
-      </c>
-      <c r="H244" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="B247" t="s">
-        <v>330</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="D247" t="s">
-        <v>331</v>
-      </c>
-      <c r="E247" t="s">
-        <v>239</v>
-      </c>
-      <c r="F247" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
-      <c r="H247" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="B250" t="s">
-        <v>309</v>
-      </c>
-      <c r="C250" t="n">
+      <c r="C251" t="n">
         <v>3.021</v>
       </c>
-      <c r="D250" t="s">
-        <v>333</v>
-      </c>
-      <c r="E250" t="s">
-        <v>334</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="D251" t="s">
         <v>335</v>
       </c>
-      <c r="G250" t="s">
+      <c r="E251" t="s">
         <v>336</v>
       </c>
-      <c r="H250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" t="s">
+      <c r="F251" t="s">
         <v>337</v>
       </c>
+      <c r="G251" t="s">
+        <v>338</v>
+      </c>
+      <c r="H251" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="B253" t="s">
-        <v>338</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D253" t="s">
-        <v>171</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="A253" t="s">
         <v>339</v>
-      </c>
-      <c r="F253" t="s">
-        <v>12</v>
-      </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
-      <c r="H253" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -5112,286 +5145,286 @@
         <v>340</v>
       </c>
       <c r="C254" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D254" t="s">
+        <v>171</v>
+      </c>
+      <c r="E254" t="s">
+        <v>341</v>
+      </c>
+      <c r="F254" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="B255" t="s">
+        <v>342</v>
+      </c>
+      <c r="C255" t="n">
         <v>2.685</v>
       </c>
-      <c r="D254" t="s">
-        <v>341</v>
-      </c>
-      <c r="E254" t="s">
-        <v>342</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="D255" t="s">
         <v>343</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
-      <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
+      <c r="E255" t="s">
         <v>344</v>
       </c>
+      <c r="F255" t="s">
+        <v>345</v>
+      </c>
+      <c r="G255" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>345</v>
-      </c>
-      <c r="C257" t="n">
+      <c r="A257" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="B258" t="s">
+        <v>347</v>
+      </c>
+      <c r="C258" t="n">
         <v>3.2572</v>
       </c>
-      <c r="D257" t="s">
-        <v>346</v>
-      </c>
-      <c r="E257" t="s">
-        <v>347</v>
-      </c>
-      <c r="F257" t="s">
-        <v>12</v>
-      </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
-      <c r="H257" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
+      <c r="D258" t="s">
         <v>348</v>
       </c>
+      <c r="E258" t="s">
+        <v>349</v>
+      </c>
+      <c r="F258" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" t="s">
+        <v>12</v>
+      </c>
+      <c r="H258" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="B260" t="s">
-        <v>349</v>
-      </c>
-      <c r="C260" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D260" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" t="s">
-        <v>58</v>
-      </c>
-      <c r="F260" t="s">
-        <v>12</v>
-      </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
-      <c r="H260" t="s">
-        <v>12</v>
+      <c r="A260" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="B261" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D261" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" t="s">
+        <v>58</v>
+      </c>
+      <c r="F261" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="B262" t="s">
+        <v>352</v>
+      </c>
+      <c r="C262" t="n">
         <v>2.8937</v>
       </c>
-      <c r="D261" t="s">
-        <v>351</v>
-      </c>
-      <c r="E261" t="s">
-        <v>352</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="D262" t="s">
         <v>353</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
-      <c r="H261" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
+      <c r="E262" t="s">
         <v>354</v>
       </c>
+      <c r="F262" t="s">
+        <v>355</v>
+      </c>
+      <c r="G262" t="s">
+        <v>12</v>
+      </c>
+      <c r="H262" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="B264" t="s">
-        <v>355</v>
-      </c>
-      <c r="C264" t="n">
+      <c r="A264" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" t="s">
+        <v>357</v>
+      </c>
+      <c r="C265" t="n">
         <v>3.279</v>
       </c>
-      <c r="D264" t="s">
-        <v>356</v>
-      </c>
-      <c r="E264" t="s">
-        <v>357</v>
-      </c>
-      <c r="F264" t="s">
+      <c r="D265" t="s">
         <v>358</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
-      <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
+      <c r="E265" t="s">
         <v>359</v>
       </c>
+      <c r="F265" t="s">
+        <v>360</v>
+      </c>
+      <c r="G265" t="s">
+        <v>12</v>
+      </c>
+      <c r="H265" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="B267" t="s">
-        <v>360</v>
-      </c>
-      <c r="C267" t="n">
+      <c r="A267" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="B268" t="s">
+        <v>362</v>
+      </c>
+      <c r="C268" t="n">
         <v>2.9695</v>
       </c>
-      <c r="D267" t="s">
-        <v>361</v>
-      </c>
-      <c r="E267" t="s">
-        <v>362</v>
-      </c>
-      <c r="F267" t="s">
-        <v>362</v>
-      </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
-      <c r="H267" t="s">
+      <c r="D268" t="s">
+        <v>363</v>
+      </c>
+      <c r="E268" t="s">
+        <v>364</v>
+      </c>
+      <c r="F268" t="s">
+        <v>364</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
+      </c>
+      <c r="H268" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>363</v>
-      </c>
-    </row>
     <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>364</v>
-      </c>
-      <c r="C270" t="n">
+      <c r="A270" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="B271" t="s">
+        <v>284</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D271" t="s">
+        <v>366</v>
+      </c>
+      <c r="E271" t="s">
+        <v>259</v>
+      </c>
+      <c r="F271" t="s">
+        <v>72</v>
+      </c>
+      <c r="G271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>368</v>
+      </c>
+      <c r="C274" t="n">
         <v>2.947</v>
       </c>
-      <c r="D270" t="s">
-        <v>365</v>
-      </c>
-      <c r="E270" t="s">
-        <v>366</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="D274" t="s">
+        <v>369</v>
+      </c>
+      <c r="E274" t="s">
+        <v>370</v>
+      </c>
+      <c r="F274" t="s">
         <v>93</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>368</v>
-      </c>
-      <c r="C273" t="n">
+      <c r="G274" t="s">
+        <v>12</v>
+      </c>
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>372</v>
+      </c>
+      <c r="C277" t="n">
         <v>3.4</v>
       </c>
-      <c r="D273" t="s">
-        <v>369</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="D277" t="s">
+        <v>373</v>
+      </c>
+      <c r="E277" t="s">
         <v>129</v>
       </c>
-      <c r="F273" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
-      <c r="H273" t="s">
+      <c r="F277" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" t="s">
+        <v>12</v>
+      </c>
+      <c r="H277" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>368</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D276" t="s">
-        <v>263</v>
-      </c>
-      <c r="E276" t="s">
-        <v>190</v>
-      </c>
-      <c r="F276" t="s">
-        <v>12</v>
-      </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
-      <c r="H276" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>371</v>
-      </c>
-    </row>
     <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>372</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.2405</v>
-      </c>
-      <c r="D279" t="s">
-        <v>373</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="A279" t="s">
         <v>374</v>
-      </c>
-      <c r="F279" t="s">
-        <v>375</v>
-      </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
-      <c r="H279" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C280" t="n">
-        <v>3.353</v>
+        <v>3.786</v>
       </c>
       <c r="D280" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="E280" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="F280" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G280" t="s">
         <v>12</v>
@@ -5402,18 +5435,18 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C283" t="n">
-        <v>3.393</v>
+        <v>3.2405</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="E283" t="s">
         <v>378</v>
@@ -5428,167 +5461,167 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
         <v>380</v>
       </c>
+      <c r="C284" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="D284" t="s">
+        <v>60</v>
+      </c>
+      <c r="E284" t="s">
+        <v>65</v>
+      </c>
+      <c r="F284" t="s">
+        <v>121</v>
+      </c>
+      <c r="G284" t="s">
+        <v>12</v>
+      </c>
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="B286" t="s">
+      <c r="A286" t="s">
         <v>381</v>
       </c>
-      <c r="C286" t="n">
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>347</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" t="s">
+        <v>382</v>
+      </c>
+      <c r="F287" t="s">
+        <v>383</v>
+      </c>
+      <c r="G287" t="s">
+        <v>12</v>
+      </c>
+      <c r="H287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>385</v>
+      </c>
+      <c r="C290" t="n">
         <v>3.324</v>
       </c>
-      <c r="D286" t="s">
-        <v>382</v>
-      </c>
-      <c r="E286" t="s">
-        <v>383</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="D290" t="s">
+        <v>386</v>
+      </c>
+      <c r="E290" t="s">
+        <v>387</v>
+      </c>
+      <c r="F290" t="s">
         <v>40</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
-      <c r="H286" t="s">
+      <c r="G290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="B289" t="s">
-        <v>385</v>
-      </c>
-      <c r="C289" t="n">
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="B293" t="s">
+        <v>389</v>
+      </c>
+      <c r="C293" t="n">
         <v>3.1603</v>
       </c>
-      <c r="D289" t="s">
-        <v>386</v>
-      </c>
-      <c r="E289" t="s">
-        <v>387</v>
-      </c>
-      <c r="F289" t="s">
-        <v>388</v>
-      </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
-      <c r="H289" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
+      <c r="D293" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="B292" t="s">
+      <c r="E293" t="s">
+        <v>391</v>
+      </c>
+      <c r="F293" t="s">
+        <v>392</v>
+      </c>
+      <c r="G293" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="B296" t="s">
         <v>267</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C296" t="n">
         <v>2.424</v>
       </c>
-      <c r="D292" t="s">
-        <v>391</v>
-      </c>
-      <c r="E292" t="s">
-        <v>392</v>
-      </c>
-      <c r="F292" t="s">
-        <v>393</v>
-      </c>
-      <c r="G292" t="s">
-        <v>394</v>
-      </c>
-      <c r="H292" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
+      <c r="D296" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="B295" t="s">
+      <c r="E296" t="s">
         <v>396</v>
       </c>
-      <c r="C295" t="n">
-        <v>3.557</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="F296" t="s">
         <v>397</v>
       </c>
-      <c r="E295" t="s">
+      <c r="G296" t="s">
         <v>398</v>
       </c>
-      <c r="F295" t="s">
-        <v>12</v>
-      </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
-      <c r="H295" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
+      <c r="H296" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="B298" t="s">
-        <v>400</v>
-      </c>
-      <c r="C298" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D298" t="s">
-        <v>58</v>
-      </c>
-      <c r="E298" t="s">
-        <v>190</v>
-      </c>
-      <c r="F298" t="s">
-        <v>401</v>
-      </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
-      <c r="H298" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="C299" t="n">
-        <v>3.467</v>
+        <v>3.557</v>
       </c>
       <c r="D299" t="s">
+        <v>401</v>
+      </c>
+      <c r="E299" t="s">
         <v>402</v>
       </c>
-      <c r="E299" t="s">
-        <v>129</v>
-      </c>
       <c r="F299" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G299" t="s">
         <v>12</v>
       </c>
       <c r="H299" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -5598,16 +5631,16 @@
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C302" t="n">
-        <v>3.274</v>
+        <v>3.714</v>
       </c>
       <c r="D302" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="E302" t="s">
-        <v>405</v>
+        <v>190</v>
       </c>
       <c r="F302" t="s">
         <v>405</v>
@@ -5619,326 +5652,326 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>281</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D303" t="s">
         <v>406</v>
       </c>
+      <c r="E303" t="s">
+        <v>129</v>
+      </c>
+      <c r="F303" t="s">
+        <v>153</v>
+      </c>
+      <c r="G303" t="s">
+        <v>12</v>
+      </c>
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="B305" t="s">
-        <v>295</v>
-      </c>
-      <c r="C305" t="n">
+      <c r="A305" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
+        <v>357</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.274</v>
+      </c>
+      <c r="D306" t="s">
+        <v>408</v>
+      </c>
+      <c r="E306" t="s">
+        <v>409</v>
+      </c>
+      <c r="F306" t="s">
+        <v>409</v>
+      </c>
+      <c r="G306" t="s">
+        <v>12</v>
+      </c>
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>297</v>
+      </c>
+      <c r="C309" t="n">
         <v>2.667</v>
       </c>
-      <c r="D305" t="s">
-        <v>407</v>
-      </c>
-      <c r="E305" t="s">
-        <v>408</v>
-      </c>
-      <c r="F305" t="s">
-        <v>409</v>
-      </c>
-      <c r="G305" t="s">
+      <c r="D309" t="s">
+        <v>411</v>
+      </c>
+      <c r="E309" t="s">
+        <v>412</v>
+      </c>
+      <c r="F309" t="s">
+        <v>413</v>
+      </c>
+      <c r="G309" t="s">
         <v>163</v>
       </c>
-      <c r="H305" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>302</v>
-      </c>
-      <c r="C308" t="n">
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>304</v>
+      </c>
+      <c r="C312" t="n">
         <v>3.375</v>
       </c>
-      <c r="D308" t="s">
-        <v>411</v>
-      </c>
-      <c r="E308" t="s">
-        <v>411</v>
-      </c>
-      <c r="F308" t="s">
+      <c r="D312" t="s">
+        <v>415</v>
+      </c>
+      <c r="E312" t="s">
+        <v>415</v>
+      </c>
+      <c r="F312" t="s">
         <v>275</v>
       </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
-      <c r="H308" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>330</v>
-      </c>
-      <c r="C311" t="n">
+      <c r="G312" t="s">
+        <v>12</v>
+      </c>
+      <c r="H312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>332</v>
+      </c>
+      <c r="C315" t="n">
         <v>3.364</v>
       </c>
-      <c r="D311" t="s">
-        <v>413</v>
-      </c>
-      <c r="E311" t="s">
-        <v>413</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="D315" t="s">
+        <v>417</v>
+      </c>
+      <c r="E315" t="s">
+        <v>417</v>
+      </c>
+      <c r="F315" t="s">
         <v>143</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
-      <c r="H311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>360</v>
-      </c>
-      <c r="C314" t="n">
+      <c r="G315" t="s">
+        <v>12</v>
+      </c>
+      <c r="H315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>362</v>
+      </c>
+      <c r="C318" t="n">
         <v>3.591</v>
       </c>
-      <c r="D314" t="s">
-        <v>415</v>
-      </c>
-      <c r="E314" t="s">
-        <v>416</v>
-      </c>
-      <c r="F314" t="s">
+      <c r="D318" t="s">
+        <v>419</v>
+      </c>
+      <c r="E318" t="s">
+        <v>420</v>
+      </c>
+      <c r="F318" t="s">
         <v>143</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
-      <c r="H314" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>364</v>
-      </c>
-      <c r="C317" t="n">
+      <c r="G318" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>368</v>
+      </c>
+      <c r="C321" t="n">
         <v>3.5</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D321" t="s">
         <v>28</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E321" t="s">
         <v>28</v>
       </c>
-      <c r="F317" t="s">
-        <v>12</v>
-      </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
-      <c r="H317" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>338</v>
-      </c>
-      <c r="C320" t="n">
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" t="s">
+        <v>12</v>
+      </c>
+      <c r="H321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>340</v>
+      </c>
+      <c r="C324" t="n">
         <v>3.304</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D324" t="s">
         <v>174</v>
       </c>
-      <c r="E320" t="s">
-        <v>419</v>
-      </c>
-      <c r="F320" t="s">
-        <v>420</v>
-      </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
-      <c r="H320" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="B323" t="s">
-        <v>400</v>
-      </c>
-      <c r="C323" t="n">
+      <c r="E324" t="s">
+        <v>423</v>
+      </c>
+      <c r="F324" t="s">
+        <v>424</v>
+      </c>
+      <c r="G324" t="s">
+        <v>12</v>
+      </c>
+      <c r="H324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>404</v>
+      </c>
+      <c r="C327" t="n">
         <v>3.21</v>
       </c>
-      <c r="D323" t="s">
-        <v>304</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="D327" t="s">
+        <v>306</v>
+      </c>
+      <c r="E327" t="s">
         <v>110</v>
       </c>
-      <c r="F323" t="s">
-        <v>422</v>
-      </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
-      <c r="H323" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="A325" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="B326" t="s">
-        <v>376</v>
-      </c>
-      <c r="C326" t="n">
+      <c r="F327" t="s">
+        <v>426</v>
+      </c>
+      <c r="G327" t="s">
+        <v>12</v>
+      </c>
+      <c r="H327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="B330" t="s">
+        <v>380</v>
+      </c>
+      <c r="C330" t="n">
         <v>4</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D330" t="s">
         <v>56</v>
       </c>
-      <c r="E326" t="s">
-        <v>12</v>
-      </c>
-      <c r="F326" t="s">
-        <v>12</v>
-      </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
-      <c r="H326" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="B329" t="s">
-        <v>309</v>
-      </c>
-      <c r="C329" t="n">
+      <c r="E330" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" t="s">
+        <v>12</v>
+      </c>
+      <c r="G330" t="s">
+        <v>12</v>
+      </c>
+      <c r="H330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>311</v>
+      </c>
+      <c r="C333" t="n">
         <v>3.714</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D333" t="s">
         <v>97</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E333" t="s">
         <v>98</v>
       </c>
-      <c r="F329" t="s">
-        <v>12</v>
-      </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
-      <c r="H329" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>330</v>
-      </c>
-      <c r="C332" t="n">
-        <v>3.391</v>
-      </c>
-      <c r="D332" t="s">
-        <v>174</v>
-      </c>
-      <c r="E332" t="s">
-        <v>175</v>
-      </c>
-      <c r="F332" t="s">
-        <v>12</v>
-      </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
-      <c r="H332" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>426</v>
+      <c r="F333" t="s">
+        <v>12</v>
+      </c>
+      <c r="G333" t="s">
+        <v>12</v>
+      </c>
+      <c r="H333" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
-      <c r="B335" t="s">
-        <v>427</v>
-      </c>
-      <c r="C335" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="D335" t="s">
-        <v>428</v>
-      </c>
-      <c r="E335" t="s">
+      <c r="A335" t="s">
         <v>429</v>
-      </c>
-      <c r="F335" t="s">
-        <v>430</v>
-      </c>
-      <c r="G335" t="s">
-        <v>431</v>
-      </c>
-      <c r="H335" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="B336" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="C336" t="n">
-        <v>3.9714</v>
+        <v>3.391</v>
       </c>
       <c r="D336" t="s">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="E336" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="F336" t="s">
         <v>12</v>
@@ -5947,106 +5980,106 @@
         <v>12</v>
       </c>
       <c r="H336" t="s">
-        <v>434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="B339" t="s">
+        <v>431</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="D339" t="s">
+        <v>432</v>
+      </c>
+      <c r="E339" t="s">
+        <v>433</v>
+      </c>
+      <c r="F339" t="s">
+        <v>434</v>
+      </c>
+      <c r="G339" t="s">
+        <v>435</v>
+      </c>
+      <c r="H339" t="s">
         <v>436</v>
-      </c>
-      <c r="C339" t="n">
-        <v>3</v>
-      </c>
-      <c r="D339" t="s">
-        <v>64</v>
-      </c>
-      <c r="E339" t="s">
-        <v>437</v>
-      </c>
-      <c r="F339" t="s">
-        <v>66</v>
-      </c>
-      <c r="G339" t="s">
-        <v>121</v>
-      </c>
-      <c r="H339" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="B340" t="s">
+        <v>123</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.9714</v>
+      </c>
+      <c r="D340" t="s">
+        <v>437</v>
+      </c>
+      <c r="E340" t="s">
         <v>438</v>
       </c>
-      <c r="C340" t="n">
-        <v>3.534</v>
-      </c>
-      <c r="D340" t="s">
+      <c r="F340" t="s">
+        <v>12</v>
+      </c>
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
         <v>439</v>
       </c>
-      <c r="E340" t="s">
+    </row>
+    <row r="343" spans="1:8">
+      <c r="B343" t="s">
         <v>440</v>
       </c>
-      <c r="F340" t="s">
-        <v>205</v>
-      </c>
-      <c r="G340" t="s">
-        <v>205</v>
-      </c>
-      <c r="H340" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="B341" t="s">
+      <c r="C343" t="n">
+        <v>3</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" t="s">
         <v>441</v>
       </c>
-      <c r="C341" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="D341" t="s">
-        <v>98</v>
-      </c>
-      <c r="E341" t="s">
-        <v>442</v>
-      </c>
-      <c r="F341" t="s">
-        <v>443</v>
-      </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
-      <c r="H341" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
-      <c r="A343" t="s">
-        <v>444</v>
+      <c r="F343" t="s">
+        <v>66</v>
+      </c>
+      <c r="G343" t="s">
+        <v>121</v>
+      </c>
+      <c r="H343" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="B344" t="s">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="C344" t="n">
-        <v>3.297</v>
+        <v>3.534</v>
       </c>
       <c r="D344" t="s">
-        <v>24</v>
+        <v>443</v>
       </c>
       <c r="E344" t="s">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="F344" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="G344" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="H344" t="s">
         <v>12</v>
@@ -6054,307 +6087,307 @@
     </row>
     <row r="345" spans="1:8">
       <c r="B345" t="s">
+        <v>445</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="D345" t="s">
+        <v>98</v>
+      </c>
+      <c r="E345" t="s">
+        <v>446</v>
+      </c>
+      <c r="F345" t="s">
+        <v>447</v>
+      </c>
+      <c r="G345" t="s">
+        <v>12</v>
+      </c>
+      <c r="H345" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>37</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="D348" t="s">
+        <v>24</v>
+      </c>
+      <c r="E348" t="s">
+        <v>28</v>
+      </c>
+      <c r="F348" t="s">
+        <v>106</v>
+      </c>
+      <c r="G348" t="s">
+        <v>449</v>
+      </c>
+      <c r="H348" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
         <v>219</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C349" t="n">
         <v>3.7</v>
       </c>
-      <c r="D345" t="s">
-        <v>446</v>
-      </c>
-      <c r="E345" t="s">
+      <c r="D349" t="s">
+        <v>450</v>
+      </c>
+      <c r="E349" t="s">
         <v>105</v>
       </c>
-      <c r="F345" t="s">
-        <v>12</v>
-      </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
-      <c r="H345" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="B346" t="s">
-        <v>447</v>
-      </c>
-      <c r="C346" t="n">
-        <v>3.3055</v>
-      </c>
-      <c r="D346" t="s">
-        <v>22</v>
-      </c>
-      <c r="E346" t="s">
-        <v>448</v>
-      </c>
-      <c r="F346" t="s">
-        <v>449</v>
-      </c>
-      <c r="G346" t="s">
-        <v>12</v>
-      </c>
-      <c r="H346" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
-      <c r="B347" t="s">
-        <v>436</v>
-      </c>
-      <c r="C347" t="n">
-        <v>3.294</v>
-      </c>
-      <c r="D347" t="s">
-        <v>437</v>
-      </c>
-      <c r="E347" t="s">
-        <v>450</v>
-      </c>
-      <c r="F347" t="s">
-        <v>66</v>
-      </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
-      <c r="H347" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
-        <v>451</v>
+      <c r="F349" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="B350" t="s">
+        <v>451</v>
+      </c>
+      <c r="C350" t="n">
+        <v>3.3055</v>
+      </c>
+      <c r="D350" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" t="s">
+        <v>452</v>
+      </c>
+      <c r="F350" t="s">
+        <v>453</v>
+      </c>
+      <c r="G350" t="s">
+        <v>12</v>
+      </c>
+      <c r="H350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="B351" t="s">
+        <v>440</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D351" t="s">
+        <v>441</v>
+      </c>
+      <c r="E351" t="s">
+        <v>454</v>
+      </c>
+      <c r="F351" t="s">
+        <v>66</v>
+      </c>
+      <c r="G351" t="s">
+        <v>12</v>
+      </c>
+      <c r="H351" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="B354" t="s">
         <v>27</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C354" t="n">
         <v>4</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D354" t="s">
         <v>56</v>
       </c>
-      <c r="E350" t="s">
-        <v>12</v>
-      </c>
-      <c r="F350" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
-      <c r="H350" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>453</v>
-      </c>
-      <c r="C353" t="n">
+      <c r="E354" t="s">
+        <v>12</v>
+      </c>
+      <c r="F354" t="s">
+        <v>12</v>
+      </c>
+      <c r="G354" t="s">
+        <v>12</v>
+      </c>
+      <c r="H354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="B357" t="s">
+        <v>457</v>
+      </c>
+      <c r="C357" t="n">
         <v>3.854</v>
       </c>
-      <c r="D353" t="s">
-        <v>454</v>
-      </c>
-      <c r="E353" t="s">
-        <v>12</v>
-      </c>
-      <c r="F353" t="s">
-        <v>455</v>
-      </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
-      <c r="H353" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="B356" t="s">
-        <v>457</v>
-      </c>
-      <c r="C356" t="n">
-        <v>2.747</v>
-      </c>
-      <c r="D356" t="s">
+      <c r="D357" t="s">
         <v>458</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E357" t="s">
+        <v>12</v>
+      </c>
+      <c r="F357" t="s">
         <v>459</v>
       </c>
-      <c r="F356" t="s">
+      <c r="G357" t="s">
+        <v>12</v>
+      </c>
+      <c r="H357" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
         <v>460</v>
-      </c>
-      <c r="G356" t="s">
-        <v>461</v>
-      </c>
-      <c r="H356" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="B359" t="s">
-        <v>464</v>
-      </c>
-      <c r="C359" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D359" t="s">
-        <v>166</v>
-      </c>
-      <c r="E359" t="s">
-        <v>165</v>
-      </c>
-      <c r="F359" t="s">
-        <v>12</v>
-      </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
-      <c r="H359" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="B360" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="C360" t="n">
-        <v>3.467</v>
+        <v>2.747</v>
       </c>
       <c r="D360" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="E360" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
       <c r="F360" t="s">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="G360" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
       <c r="H360" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="B363" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C363" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>166</v>
+      </c>
+      <c r="E363" t="s">
+        <v>165</v>
+      </c>
+      <c r="F363" t="s">
+        <v>12</v>
+      </c>
+      <c r="G363" t="s">
+        <v>12</v>
+      </c>
+      <c r="H363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="B364" t="s">
+        <v>206</v>
+      </c>
+      <c r="C364" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D364" t="s">
+        <v>406</v>
+      </c>
+      <c r="E364" t="s">
+        <v>129</v>
+      </c>
+      <c r="F364" t="s">
+        <v>153</v>
+      </c>
+      <c r="G364" t="s">
+        <v>12</v>
+      </c>
+      <c r="H364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="B367" t="s">
+        <v>470</v>
+      </c>
+      <c r="C367" t="n">
         <v>3.75</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D367" t="s">
         <v>58</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E367" t="s">
         <v>17</v>
       </c>
-      <c r="F363" t="s">
-        <v>12</v>
-      </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
-      <c r="H363" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="B366" t="s">
-        <v>468</v>
-      </c>
-      <c r="C366" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="D366" t="s">
-        <v>469</v>
-      </c>
-      <c r="E366" t="s">
-        <v>141</v>
-      </c>
-      <c r="F366" t="s">
-        <v>470</v>
-      </c>
-      <c r="G366" t="s">
-        <v>12</v>
-      </c>
-      <c r="H366" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="A368" t="s">
+      <c r="F367" t="s">
+        <v>12</v>
+      </c>
+      <c r="G367" t="s">
+        <v>12</v>
+      </c>
+      <c r="H367" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="B369" t="s">
-        <v>472</v>
-      </c>
-      <c r="C369" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D369" t="s">
-        <v>28</v>
-      </c>
-      <c r="E369" t="s">
-        <v>28</v>
-      </c>
-      <c r="F369" t="s">
-        <v>12</v>
-      </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
-      <c r="H369" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="B370" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C370" t="n">
-        <v>3.1</v>
+        <v>3.545</v>
       </c>
       <c r="D370" t="s">
-        <v>166</v>
+        <v>473</v>
       </c>
       <c r="E370" t="s">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="F370" t="s">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="G370" t="s">
         <v>12</v>
@@ -6365,24 +6398,24 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="B373" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C373" t="n">
-        <v>3.444</v>
+        <v>3.5</v>
       </c>
       <c r="D373" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E373" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F373" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="G373" t="s">
         <v>12</v>
@@ -6393,19 +6426,19 @@
     </row>
     <row r="374" spans="1:8">
       <c r="B374" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C374" t="n">
-        <v>3.462</v>
+        <v>3.1</v>
       </c>
       <c r="D374" t="s">
-        <v>387</v>
+        <v>166</v>
       </c>
       <c r="E374" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="F374" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G374" t="s">
         <v>12</v>
@@ -6416,660 +6449,660 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="B377" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C377" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D377" t="s">
+        <v>89</v>
+      </c>
+      <c r="E377" t="s">
+        <v>22</v>
+      </c>
+      <c r="F377" t="s">
+        <v>146</v>
+      </c>
+      <c r="G377" t="s">
+        <v>12</v>
+      </c>
+      <c r="H377" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="B378" t="s">
+        <v>478</v>
+      </c>
+      <c r="C378" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D378" t="s">
+        <v>391</v>
+      </c>
+      <c r="E378" t="s">
+        <v>479</v>
+      </c>
+      <c r="F378" t="s">
+        <v>116</v>
+      </c>
+      <c r="G378" t="s">
+        <v>12</v>
+      </c>
+      <c r="H378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
+        <v>481</v>
+      </c>
+      <c r="C381" t="n">
         <v>3.6</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D381" t="s">
         <v>128</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E381" t="s">
         <v>129</v>
       </c>
-      <c r="F377" t="s">
-        <v>12</v>
-      </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
-      <c r="H377" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="A379" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
-      <c r="B380" t="s">
-        <v>479</v>
-      </c>
-      <c r="C380" t="n">
+      <c r="F381" t="s">
+        <v>12</v>
+      </c>
+      <c r="G381" t="s">
+        <v>12</v>
+      </c>
+      <c r="H381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="B384" t="s">
+        <v>483</v>
+      </c>
+      <c r="C384" t="n">
         <v>3.625</v>
       </c>
-      <c r="D380" t="s">
-        <v>480</v>
-      </c>
-      <c r="E380" t="s">
+      <c r="D384" t="s">
+        <v>484</v>
+      </c>
+      <c r="E384" t="s">
         <v>24</v>
       </c>
-      <c r="F380" t="s">
-        <v>12</v>
-      </c>
-      <c r="G380" t="s">
-        <v>12</v>
-      </c>
-      <c r="H380" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="A382" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
-      <c r="B383" t="s">
-        <v>482</v>
-      </c>
-      <c r="C383" t="n">
+      <c r="F384" t="s">
+        <v>12</v>
+      </c>
+      <c r="G384" t="s">
+        <v>12</v>
+      </c>
+      <c r="H384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="B387" t="s">
+        <v>486</v>
+      </c>
+      <c r="C387" t="n">
         <v>4</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D387" t="s">
         <v>56</v>
       </c>
-      <c r="E383" t="s">
-        <v>12</v>
-      </c>
-      <c r="F383" t="s">
-        <v>12</v>
-      </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
-      <c r="H383" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="A385" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
-      <c r="B386" t="s">
-        <v>457</v>
-      </c>
-      <c r="C386" t="n">
+      <c r="E387" t="s">
+        <v>12</v>
+      </c>
+      <c r="F387" t="s">
+        <v>12</v>
+      </c>
+      <c r="G387" t="s">
+        <v>12</v>
+      </c>
+      <c r="H387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="B390" t="s">
+        <v>461</v>
+      </c>
+      <c r="C390" t="n">
         <v>3.857</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D390" t="s">
         <v>242</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E390" t="s">
         <v>259</v>
       </c>
-      <c r="F386" t="s">
-        <v>12</v>
-      </c>
-      <c r="G386" t="s">
-        <v>12</v>
-      </c>
-      <c r="H386" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="s">
+      <c r="F390" t="s">
+        <v>12</v>
+      </c>
+      <c r="G390" t="s">
+        <v>12</v>
+      </c>
+      <c r="H390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="B393" t="s">
+        <v>470</v>
+      </c>
+      <c r="C393" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D393" t="s">
+        <v>263</v>
+      </c>
+      <c r="E393" t="s">
+        <v>190</v>
+      </c>
+      <c r="F393" t="s">
+        <v>12</v>
+      </c>
+      <c r="G393" t="s">
+        <v>12</v>
+      </c>
+      <c r="H393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="B396" t="s">
+        <v>206</v>
+      </c>
+      <c r="C396" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D396" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="B389" t="s">
-        <v>466</v>
-      </c>
-      <c r="C389" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D389" t="s">
-        <v>263</v>
-      </c>
-      <c r="E389" t="s">
-        <v>190</v>
-      </c>
-      <c r="F389" t="s">
-        <v>12</v>
-      </c>
-      <c r="G389" t="s">
-        <v>12</v>
-      </c>
-      <c r="H389" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="B392" t="s">
-        <v>206</v>
-      </c>
-      <c r="C392" t="n">
+      <c r="E396" t="s">
+        <v>24</v>
+      </c>
+      <c r="F396" t="s">
+        <v>12</v>
+      </c>
+      <c r="G396" t="s">
+        <v>12</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="B399" t="s">
+        <v>461</v>
+      </c>
+      <c r="C399" t="n">
+        <v>4</v>
+      </c>
+      <c r="D399" t="s">
+        <v>56</v>
+      </c>
+      <c r="E399" t="s">
+        <v>12</v>
+      </c>
+      <c r="F399" t="s">
+        <v>12</v>
+      </c>
+      <c r="G399" t="s">
+        <v>12</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="B402" t="s">
+        <v>492</v>
+      </c>
+      <c r="C402" t="n">
+        <v>4</v>
+      </c>
+      <c r="D402" t="s">
+        <v>56</v>
+      </c>
+      <c r="E402" t="s">
+        <v>12</v>
+      </c>
+      <c r="F402" t="s">
+        <v>12</v>
+      </c>
+      <c r="G402" t="s">
+        <v>12</v>
+      </c>
+      <c r="H402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="B405" t="s">
+        <v>494</v>
+      </c>
+      <c r="C405" t="n">
+        <v>4</v>
+      </c>
+      <c r="D405" t="s">
+        <v>56</v>
+      </c>
+      <c r="E405" t="s">
+        <v>12</v>
+      </c>
+      <c r="F405" t="s">
+        <v>12</v>
+      </c>
+      <c r="G405" t="s">
+        <v>12</v>
+      </c>
+      <c r="H405" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="B408" t="s">
+        <v>496</v>
+      </c>
+      <c r="C408" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="D408" t="s">
+        <v>497</v>
+      </c>
+      <c r="E408" t="s">
+        <v>498</v>
+      </c>
+      <c r="F408" t="s">
+        <v>12</v>
+      </c>
+      <c r="G408" t="s">
+        <v>12</v>
+      </c>
+      <c r="H408" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="B411" t="s">
+        <v>492</v>
+      </c>
+      <c r="C411" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D411" t="s">
+        <v>209</v>
+      </c>
+      <c r="E411" t="s">
+        <v>369</v>
+      </c>
+      <c r="F411" t="s">
+        <v>12</v>
+      </c>
+      <c r="G411" t="s">
+        <v>12</v>
+      </c>
+      <c r="H411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="B414" t="s">
+        <v>492</v>
+      </c>
+      <c r="C414" t="n">
         <v>3.625</v>
       </c>
-      <c r="D392" t="s">
-        <v>480</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="D414" t="s">
+        <v>484</v>
+      </c>
+      <c r="E414" t="s">
         <v>24</v>
       </c>
-      <c r="F392" t="s">
-        <v>12</v>
-      </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
-      <c r="H392" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="B395" t="s">
-        <v>457</v>
-      </c>
-      <c r="C395" t="n">
-        <v>4</v>
-      </c>
-      <c r="D395" t="s">
-        <v>56</v>
-      </c>
-      <c r="E395" t="s">
-        <v>12</v>
-      </c>
-      <c r="F395" t="s">
-        <v>12</v>
-      </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
-      <c r="H395" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="B398" t="s">
-        <v>488</v>
-      </c>
-      <c r="C398" t="n">
-        <v>4</v>
-      </c>
-      <c r="D398" t="s">
-        <v>56</v>
-      </c>
-      <c r="E398" t="s">
-        <v>12</v>
-      </c>
-      <c r="F398" t="s">
-        <v>12</v>
-      </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
-      <c r="H398" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="A400" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="B401" t="s">
-        <v>490</v>
-      </c>
-      <c r="C401" t="n">
-        <v>4</v>
-      </c>
-      <c r="D401" t="s">
-        <v>56</v>
-      </c>
-      <c r="E401" t="s">
-        <v>12</v>
-      </c>
-      <c r="F401" t="s">
-        <v>12</v>
-      </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
-      <c r="H401" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="A403" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="B404" t="s">
-        <v>492</v>
-      </c>
-      <c r="C404" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="D404" t="s">
-        <v>493</v>
-      </c>
-      <c r="E404" t="s">
-        <v>494</v>
-      </c>
-      <c r="F404" t="s">
-        <v>12</v>
-      </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
-      <c r="H404" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="A406" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
-      <c r="B407" t="s">
-        <v>488</v>
-      </c>
-      <c r="C407" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D407" t="s">
+      <c r="F414" t="s">
+        <v>12</v>
+      </c>
+      <c r="G414" t="s">
+        <v>12</v>
+      </c>
+      <c r="H414" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="B417" t="s">
+        <v>502</v>
+      </c>
+      <c r="C417" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D417" t="s">
+        <v>89</v>
+      </c>
+      <c r="E417" t="s">
+        <v>29</v>
+      </c>
+      <c r="F417" t="s">
+        <v>12</v>
+      </c>
+      <c r="G417" t="s">
+        <v>12</v>
+      </c>
+      <c r="H417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="B420" t="s">
+        <v>504</v>
+      </c>
+      <c r="C420" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="D420" t="s">
         <v>209</v>
       </c>
-      <c r="E407" t="s">
-        <v>365</v>
-      </c>
-      <c r="F407" t="s">
-        <v>12</v>
-      </c>
-      <c r="G407" t="s">
-        <v>12</v>
-      </c>
-      <c r="H407" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
-      <c r="A409" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
-      <c r="B410" t="s">
-        <v>488</v>
-      </c>
-      <c r="C410" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D410" t="s">
-        <v>480</v>
-      </c>
-      <c r="E410" t="s">
-        <v>24</v>
-      </c>
-      <c r="F410" t="s">
-        <v>12</v>
-      </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
-      <c r="H410" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="A412" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
-      <c r="B413" t="s">
-        <v>498</v>
-      </c>
-      <c r="C413" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D413" t="s">
-        <v>89</v>
-      </c>
-      <c r="E413" t="s">
-        <v>29</v>
-      </c>
-      <c r="F413" t="s">
-        <v>12</v>
-      </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
-      <c r="H413" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
-      <c r="A415" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
-      <c r="B416" t="s">
-        <v>500</v>
-      </c>
-      <c r="C416" t="n">
-        <v>3.632</v>
-      </c>
-      <c r="D416" t="s">
-        <v>209</v>
-      </c>
-      <c r="E416" t="s">
+      <c r="E420" t="s">
         <v>210</v>
       </c>
-      <c r="F416" t="s">
-        <v>12</v>
-      </c>
-      <c r="G416" t="s">
+      <c r="F420" t="s">
+        <v>12</v>
+      </c>
+      <c r="G420" t="s">
         <v>195</v>
       </c>
-      <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="A418" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
-        <v>502</v>
-      </c>
-      <c r="C419" t="n">
+      <c r="H420" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="B423" t="s">
+        <v>506</v>
+      </c>
+      <c r="C423" t="n">
         <v>3.846</v>
       </c>
-      <c r="D419" t="s">
-        <v>503</v>
-      </c>
-      <c r="E419" t="s">
+      <c r="D423" t="s">
+        <v>507</v>
+      </c>
+      <c r="E423" t="s">
         <v>78</v>
       </c>
-      <c r="F419" t="s">
-        <v>12</v>
-      </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
-      <c r="H419" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="B422" t="s">
-        <v>505</v>
-      </c>
-      <c r="C422" t="n">
+      <c r="F423" t="s">
+        <v>12</v>
+      </c>
+      <c r="G423" t="s">
+        <v>12</v>
+      </c>
+      <c r="H423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="B426" t="s">
+        <v>509</v>
+      </c>
+      <c r="C426" t="n">
         <v>3.833</v>
       </c>
-      <c r="D422" t="s">
-        <v>339</v>
-      </c>
-      <c r="E422" t="s">
+      <c r="D426" t="s">
+        <v>341</v>
+      </c>
+      <c r="E426" t="s">
         <v>171</v>
       </c>
-      <c r="F422" t="s">
-        <v>12</v>
-      </c>
-      <c r="G422" t="s">
-        <v>12</v>
-      </c>
-      <c r="H422" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="A424" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="B425" t="s">
-        <v>507</v>
-      </c>
-      <c r="C425" t="n">
+      <c r="F426" t="s">
+        <v>12</v>
+      </c>
+      <c r="G426" t="s">
+        <v>12</v>
+      </c>
+      <c r="H426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="B429" t="s">
+        <v>511</v>
+      </c>
+      <c r="C429" t="n">
         <v>3.833</v>
       </c>
-      <c r="D425" t="s">
-        <v>339</v>
-      </c>
-      <c r="E425" t="s">
+      <c r="D429" t="s">
+        <v>341</v>
+      </c>
+      <c r="E429" t="s">
         <v>171</v>
       </c>
-      <c r="F425" t="s">
-        <v>12</v>
-      </c>
-      <c r="G425" t="s">
-        <v>12</v>
-      </c>
-      <c r="H425" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="A427" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="B428" t="s">
-        <v>509</v>
-      </c>
-      <c r="C428" t="n">
+      <c r="F429" t="s">
+        <v>12</v>
+      </c>
+      <c r="G429" t="s">
+        <v>12</v>
+      </c>
+      <c r="H429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="B432" t="s">
+        <v>513</v>
+      </c>
+      <c r="C432" t="n">
         <v>3.667</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D432" t="s">
         <v>160</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E432" t="s">
         <v>22</v>
       </c>
-      <c r="F428" t="s">
-        <v>12</v>
-      </c>
-      <c r="G428" t="s">
-        <v>12</v>
-      </c>
-      <c r="H428" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="A430" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="B431" t="s">
-        <v>511</v>
-      </c>
-      <c r="C431" t="n">
+      <c r="F432" t="s">
+        <v>12</v>
+      </c>
+      <c r="G432" t="s">
+        <v>12</v>
+      </c>
+      <c r="H432" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="B435" t="s">
+        <v>515</v>
+      </c>
+      <c r="C435" t="n">
         <v>3.389</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D435" t="s">
         <v>254</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E435" t="s">
         <v>21</v>
       </c>
-      <c r="F431" t="s">
-        <v>12</v>
-      </c>
-      <c r="G431" t="s">
-        <v>12</v>
-      </c>
-      <c r="H431" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="A433" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="B434" t="s">
-        <v>513</v>
-      </c>
-      <c r="C434" t="n">
+      <c r="F435" t="s">
+        <v>12</v>
+      </c>
+      <c r="G435" t="s">
+        <v>12</v>
+      </c>
+      <c r="H435" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="B438" t="s">
+        <v>517</v>
+      </c>
+      <c r="C438" t="n">
         <v>3.312</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D438" t="s">
         <v>28</v>
       </c>
-      <c r="E434" t="s">
-        <v>321</v>
-      </c>
-      <c r="F434" t="s">
-        <v>12</v>
-      </c>
-      <c r="G434" t="s">
-        <v>12</v>
-      </c>
-      <c r="H434" t="s">
+      <c r="E438" t="s">
+        <v>323</v>
+      </c>
+      <c r="F438" t="s">
+        <v>12</v>
+      </c>
+      <c r="G438" t="s">
+        <v>12</v>
+      </c>
+      <c r="H438" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
-      <c r="A436" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="B437" t="s">
-        <v>513</v>
-      </c>
-      <c r="C437" t="n">
+    <row r="440" spans="1:8">
+      <c r="A440" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="B441" t="s">
+        <v>517</v>
+      </c>
+      <c r="C441" t="n">
         <v>3.9</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D441" t="s">
         <v>138</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E441" t="s">
         <v>106</v>
       </c>
-      <c r="F437" t="s">
-        <v>12</v>
-      </c>
-      <c r="G437" t="s">
-        <v>12</v>
-      </c>
-      <c r="H437" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
-      <c r="A439" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
-      <c r="B440" t="s">
-        <v>516</v>
-      </c>
-      <c r="C440" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D440" t="s">
-        <v>141</v>
-      </c>
-      <c r="E440" t="s">
-        <v>517</v>
-      </c>
-      <c r="F440" t="s">
-        <v>12</v>
-      </c>
-      <c r="G440" t="s">
-        <v>12</v>
-      </c>
-      <c r="H440" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8">
-      <c r="A442" t="s">
-        <v>518</v>
+      <c r="F441" t="s">
+        <v>12</v>
+      </c>
+      <c r="G441" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="443" spans="1:8">
-      <c r="B443" t="s">
-        <v>500</v>
-      </c>
-      <c r="C443" t="n">
-        <v>4</v>
-      </c>
-      <c r="D443" t="s">
-        <v>56</v>
-      </c>
-      <c r="E443" t="s">
-        <v>12</v>
-      </c>
-      <c r="F443" t="s">
-        <v>12</v>
-      </c>
-      <c r="G443" t="s">
-        <v>12</v>
-      </c>
-      <c r="H443" t="s">
-        <v>12</v>
+      <c r="A443" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="B444" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>3.364</v>
       </c>
       <c r="D444" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="E444" t="s">
-        <v>12</v>
+        <v>521</v>
       </c>
       <c r="F444" t="s">
         <v>12</v>
@@ -7083,27 +7116,27 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="B447" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C447" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D447" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="E447" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="F447" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H447" t="s">
         <v>12</v>
@@ -7111,22 +7144,22 @@
     </row>
     <row r="448" spans="1:8">
       <c r="B448" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="C448" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D448" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E448" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="F448" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G448" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H448" t="s">
         <v>12</v>
@@ -7134,75 +7167,75 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="B451" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="C451" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D451" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E451" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="F451" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="G451" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H451" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>522</v>
+    <row r="452" spans="1:8">
+      <c r="B452" t="s">
+        <v>511</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D452" t="s">
+        <v>12</v>
+      </c>
+      <c r="E452" t="s">
+        <v>165</v>
+      </c>
+      <c r="F452" t="s">
+        <v>106</v>
+      </c>
+      <c r="G452" t="s">
+        <v>106</v>
+      </c>
+      <c r="H452" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="454" spans="1:8">
-      <c r="B454" t="s">
-        <v>523</v>
-      </c>
-      <c r="C454" t="n">
-        <v>3.312</v>
-      </c>
-      <c r="D454" t="s">
-        <v>18</v>
-      </c>
-      <c r="E454" t="s">
-        <v>25</v>
-      </c>
-      <c r="F454" t="s">
-        <v>26</v>
-      </c>
-      <c r="G454" t="s">
-        <v>12</v>
-      </c>
-      <c r="H454" t="s">
-        <v>26</v>
+      <c r="A454" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="B455" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C455" t="n">
-        <v>3.792</v>
+        <v>3</v>
       </c>
       <c r="D455" t="s">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="E455" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="F455" t="s">
-        <v>526</v>
+        <v>24</v>
       </c>
       <c r="G455" t="s">
         <v>12</v>
@@ -7213,50 +7246,50 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="B458" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C458" t="n">
-        <v>3.4</v>
+        <v>3.312</v>
       </c>
       <c r="D458" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E458" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="F458" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="G458" t="s">
         <v>12</v>
       </c>
       <c r="H458" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="B459" t="s">
+        <v>528</v>
+      </c>
+      <c r="C459" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="D459" t="s">
+        <v>341</v>
+      </c>
+      <c r="E459" t="s">
         <v>529</v>
       </c>
-      <c r="C459" t="n">
-        <v>3.249</v>
-      </c>
-      <c r="D459" t="s">
+      <c r="F459" t="s">
         <v>530</v>
       </c>
-      <c r="E459" t="s">
-        <v>531</v>
-      </c>
-      <c r="F459" t="s">
-        <v>532</v>
-      </c>
       <c r="G459" t="s">
-        <v>533</v>
+        <v>12</v>
       </c>
       <c r="H459" t="s">
         <v>12</v>
@@ -7264,86 +7297,86 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="B462" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="C462" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D462" t="s">
+        <v>128</v>
+      </c>
+      <c r="E462" t="s">
+        <v>166</v>
+      </c>
+      <c r="F462" t="s">
+        <v>166</v>
+      </c>
+      <c r="G462" t="s">
+        <v>12</v>
+      </c>
+      <c r="H462" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="B463" t="s">
+        <v>533</v>
+      </c>
+      <c r="C463" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="D463" t="s">
+        <v>534</v>
+      </c>
+      <c r="E463" t="s">
+        <v>535</v>
+      </c>
+      <c r="F463" t="s">
+        <v>536</v>
+      </c>
+      <c r="G463" t="s">
+        <v>537</v>
+      </c>
+      <c r="H463" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="B466" t="s">
+        <v>513</v>
+      </c>
+      <c r="C466" t="n">
         <v>3.5</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D466" t="s">
         <v>58</v>
       </c>
-      <c r="E462" t="s">
-        <v>525</v>
-      </c>
-      <c r="F462" t="s">
-        <v>12</v>
-      </c>
-      <c r="G462" t="s">
-        <v>525</v>
-      </c>
-      <c r="H462" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
-      <c r="A464" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="B465" t="s">
-        <v>536</v>
-      </c>
-      <c r="C465" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="D465" t="s">
-        <v>537</v>
-      </c>
-      <c r="E465" t="s">
-        <v>538</v>
-      </c>
-      <c r="F465" t="s">
-        <v>12</v>
-      </c>
-      <c r="G465" t="s">
-        <v>12</v>
-      </c>
-      <c r="H465" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" t="s">
+      <c r="E466" t="s">
+        <v>529</v>
+      </c>
+      <c r="F466" t="s">
+        <v>12</v>
+      </c>
+      <c r="G466" t="s">
+        <v>529</v>
+      </c>
+      <c r="H466" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="B468" t="s">
-        <v>505</v>
-      </c>
-      <c r="C468" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D468" t="s">
-        <v>189</v>
-      </c>
-      <c r="E468" t="s">
-        <v>98</v>
-      </c>
-      <c r="F468" t="s">
-        <v>98</v>
-      </c>
-      <c r="G468" t="s">
-        <v>12</v>
-      </c>
-      <c r="H468" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -7351,13 +7384,13 @@
         <v>540</v>
       </c>
       <c r="C469" t="n">
-        <v>3.111</v>
+        <v>3.692</v>
       </c>
       <c r="D469" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="E469" t="s">
-        <v>29</v>
+        <v>542</v>
       </c>
       <c r="F469" t="s">
         <v>12</v>
@@ -7366,503 +7399,462 @@
         <v>12</v>
       </c>
       <c r="H469" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="472" spans="1:8">
       <c r="B472" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="C472" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D472" t="s">
+        <v>189</v>
+      </c>
+      <c r="E472" t="s">
+        <v>98</v>
+      </c>
+      <c r="F472" t="s">
+        <v>98</v>
+      </c>
+      <c r="G472" t="s">
+        <v>12</v>
+      </c>
+      <c r="H472" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="B473" t="s">
+        <v>544</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D473" t="s">
+        <v>29</v>
+      </c>
+      <c r="E473" t="s">
+        <v>29</v>
+      </c>
+      <c r="F473" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473" t="s">
+        <v>12</v>
+      </c>
+      <c r="H473" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="B476" t="s">
+        <v>496</v>
+      </c>
+      <c r="C476" t="n">
         <v>3.611</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D476" t="s">
         <v>21</v>
       </c>
-      <c r="E472" t="s">
+      <c r="E476" t="s">
         <v>254</v>
       </c>
-      <c r="F472" t="s">
-        <v>12</v>
-      </c>
-      <c r="G472" t="s">
-        <v>12</v>
-      </c>
-      <c r="H472" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="A474" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="B475" t="s">
-        <v>502</v>
-      </c>
-      <c r="C475" t="n">
+      <c r="F476" t="s">
+        <v>12</v>
+      </c>
+      <c r="G476" t="s">
+        <v>12</v>
+      </c>
+      <c r="H476" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="B479" t="s">
+        <v>506</v>
+      </c>
+      <c r="C479" t="n">
         <v>3</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D479" t="s">
         <v>22</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E479" t="s">
         <v>22</v>
       </c>
-      <c r="F475" t="s">
+      <c r="F479" t="s">
         <v>22</v>
       </c>
-      <c r="G475" t="s">
-        <v>12</v>
-      </c>
-      <c r="H475" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="A477" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="B478" t="s">
-        <v>544</v>
-      </c>
-      <c r="C478" t="n">
+      <c r="G479" t="s">
+        <v>12</v>
+      </c>
+      <c r="H479" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="B482" t="s">
+        <v>548</v>
+      </c>
+      <c r="C482" t="n">
         <v>3.778</v>
       </c>
-      <c r="D478" t="s">
-        <v>545</v>
-      </c>
-      <c r="E478" t="s">
-        <v>546</v>
-      </c>
-      <c r="F478" t="s">
-        <v>547</v>
-      </c>
-      <c r="G478" t="s">
-        <v>12</v>
-      </c>
-      <c r="H478" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="A480" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="B481" t="s">
-        <v>528</v>
-      </c>
-      <c r="C481" t="n">
+      <c r="D482" t="s">
+        <v>549</v>
+      </c>
+      <c r="E482" t="s">
+        <v>550</v>
+      </c>
+      <c r="F482" t="s">
+        <v>551</v>
+      </c>
+      <c r="G482" t="s">
+        <v>12</v>
+      </c>
+      <c r="H482" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="B485" t="s">
+        <v>532</v>
+      </c>
+      <c r="C485" t="n">
         <v>3.6</v>
       </c>
-      <c r="D481" t="s">
-        <v>446</v>
-      </c>
-      <c r="E481" t="s">
+      <c r="D485" t="s">
+        <v>450</v>
+      </c>
+      <c r="E485" t="s">
         <v>166</v>
       </c>
-      <c r="F481" t="s">
+      <c r="F485" t="s">
         <v>106</v>
       </c>
-      <c r="G481" t="s">
-        <v>12</v>
-      </c>
-      <c r="H481" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
-      <c r="A483" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="B484" t="s">
-        <v>550</v>
-      </c>
-      <c r="C484" t="n">
+      <c r="G485" t="s">
+        <v>12</v>
+      </c>
+      <c r="H485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="B488" t="s">
+        <v>554</v>
+      </c>
+      <c r="C488" t="n">
         <v>2.925</v>
       </c>
-      <c r="D484" t="s">
-        <v>551</v>
-      </c>
-      <c r="E484" t="s">
-        <v>552</v>
-      </c>
-      <c r="F484" t="s">
+      <c r="D488" t="s">
+        <v>555</v>
+      </c>
+      <c r="E488" t="s">
+        <v>556</v>
+      </c>
+      <c r="F488" t="s">
         <v>17</v>
       </c>
-      <c r="G484" t="s">
-        <v>525</v>
-      </c>
-      <c r="H484" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
-      <c r="A486" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="B487" t="s">
-        <v>554</v>
-      </c>
-      <c r="C487" t="n">
+      <c r="G488" t="s">
+        <v>529</v>
+      </c>
+      <c r="H488" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="B491" t="s">
+        <v>558</v>
+      </c>
+      <c r="C491" t="n">
         <v>3.963</v>
       </c>
-      <c r="D487" t="s">
-        <v>555</v>
-      </c>
-      <c r="E487" t="s">
-        <v>341</v>
-      </c>
-      <c r="F487" t="s">
-        <v>12</v>
-      </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
-      <c r="H487" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
-      <c r="B490" t="s">
-        <v>529</v>
-      </c>
-      <c r="C490" t="n">
+      <c r="D491" t="s">
+        <v>559</v>
+      </c>
+      <c r="E491" t="s">
+        <v>343</v>
+      </c>
+      <c r="F491" t="s">
+        <v>12</v>
+      </c>
+      <c r="G491" t="s">
+        <v>12</v>
+      </c>
+      <c r="H491" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="B494" t="s">
+        <v>533</v>
+      </c>
+      <c r="C494" t="n">
         <v>4</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D494" t="s">
         <v>56</v>
       </c>
-      <c r="E490" t="s">
-        <v>12</v>
-      </c>
-      <c r="F490" t="s">
-        <v>12</v>
-      </c>
-      <c r="G490" t="s">
-        <v>12</v>
-      </c>
-      <c r="H490" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
-      <c r="A492" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="B493" t="s">
-        <v>513</v>
-      </c>
-      <c r="C493" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D493" t="s">
-        <v>58</v>
-      </c>
-      <c r="E493" t="s">
-        <v>17</v>
-      </c>
-      <c r="F493" t="s">
-        <v>12</v>
-      </c>
-      <c r="G493" t="s">
-        <v>12</v>
-      </c>
-      <c r="H493" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="A495" t="s">
-        <v>558</v>
+      <c r="E494" t="s">
+        <v>12</v>
+      </c>
+      <c r="F494" t="s">
+        <v>12</v>
+      </c>
+      <c r="G494" t="s">
+        <v>12</v>
+      </c>
+      <c r="H494" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="496" spans="1:8">
-      <c r="B496" t="s">
-        <v>232</v>
-      </c>
-      <c r="C496" t="n">
-        <v>3.263</v>
-      </c>
-      <c r="D496" t="s">
-        <v>110</v>
-      </c>
-      <c r="E496" t="s">
-        <v>366</v>
-      </c>
-      <c r="F496" t="s">
-        <v>195</v>
-      </c>
-      <c r="G496" t="s">
-        <v>12</v>
-      </c>
-      <c r="H496" t="s">
-        <v>195</v>
+      <c r="A496" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="497" spans="1:8">
       <c r="B497" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="C497" t="n">
-        <v>3.255</v>
+        <v>3.75</v>
       </c>
       <c r="D497" t="s">
-        <v>440</v>
+        <v>58</v>
       </c>
       <c r="E497" t="s">
-        <v>560</v>
+        <v>17</v>
       </c>
       <c r="F497" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="G497" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="H497" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
-      <c r="B498" t="s">
+    <row r="499" spans="1:8">
+      <c r="A499" t="s">
         <v>562</v>
       </c>
-      <c r="C498" t="n">
+    </row>
+    <row r="500" spans="1:8">
+      <c r="B500" t="s">
+        <v>232</v>
+      </c>
+      <c r="C500" t="n">
         <v>3.263</v>
       </c>
-      <c r="D498" t="s">
-        <v>365</v>
-      </c>
-      <c r="E498" t="s">
-        <v>209</v>
-      </c>
-      <c r="F498" t="s">
-        <v>12</v>
-      </c>
-      <c r="G498" t="s">
-        <v>12</v>
-      </c>
-      <c r="H498" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" t="s">
-        <v>563</v>
+      <c r="D500" t="s">
+        <v>110</v>
+      </c>
+      <c r="E500" t="s">
+        <v>370</v>
+      </c>
+      <c r="F500" t="s">
+        <v>195</v>
+      </c>
+      <c r="G500" t="s">
+        <v>12</v>
+      </c>
+      <c r="H500" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="501" spans="1:8">
       <c r="B501" t="s">
+        <v>563</v>
+      </c>
+      <c r="C501" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="D501" t="s">
+        <v>444</v>
+      </c>
+      <c r="E501" t="s">
         <v>564</v>
       </c>
-      <c r="C501" t="n">
+      <c r="F501" t="s">
+        <v>565</v>
+      </c>
+      <c r="G501" t="s">
+        <v>205</v>
+      </c>
+      <c r="H501" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="B502" t="s">
+        <v>566</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="D502" t="s">
+        <v>369</v>
+      </c>
+      <c r="E502" t="s">
+        <v>209</v>
+      </c>
+      <c r="F502" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502" t="s">
+        <v>12</v>
+      </c>
+      <c r="H502" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
+        <v>568</v>
+      </c>
+      <c r="C505" t="n">
         <v>3.2167</v>
       </c>
-      <c r="D501" t="s">
-        <v>565</v>
-      </c>
-      <c r="E501" t="s">
-        <v>517</v>
-      </c>
-      <c r="F501" t="s">
-        <v>566</v>
-      </c>
-      <c r="G501" t="s">
-        <v>12</v>
-      </c>
-      <c r="H501" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="B504" t="s">
-        <v>568</v>
-      </c>
-      <c r="C504" t="n">
-        <v>3.2575</v>
-      </c>
-      <c r="D504" t="s">
+      <c r="D505" t="s">
         <v>569</v>
       </c>
-      <c r="E504" t="s">
-        <v>189</v>
-      </c>
-      <c r="F504" t="s">
+      <c r="E505" t="s">
+        <v>521</v>
+      </c>
+      <c r="F505" t="s">
         <v>570</v>
       </c>
-      <c r="G504" t="s">
-        <v>12</v>
-      </c>
-      <c r="H504" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
+      <c r="G505" t="s">
+        <v>12</v>
+      </c>
+      <c r="H505" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="B507" t="s">
-        <v>572</v>
-      </c>
-      <c r="C507" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D507" t="s">
-        <v>160</v>
-      </c>
-      <c r="E507" t="s">
-        <v>230</v>
-      </c>
-      <c r="F507" t="s">
-        <v>11</v>
-      </c>
-      <c r="G507" t="s">
-        <v>12</v>
-      </c>
-      <c r="H507" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:8">
       <c r="B508" t="s">
+        <v>572</v>
+      </c>
+      <c r="C508" t="n">
+        <v>3.2575</v>
+      </c>
+      <c r="D508" t="s">
         <v>573</v>
       </c>
-      <c r="C508" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D508" t="s">
-        <v>165</v>
-      </c>
       <c r="E508" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F508" t="s">
-        <v>12</v>
+        <v>574</v>
       </c>
       <c r="G508" t="s">
         <v>12</v>
       </c>
       <c r="H508" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
-      <c r="B509" t="s">
-        <v>221</v>
-      </c>
-      <c r="C509" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D509" t="s">
-        <v>110</v>
-      </c>
-      <c r="E509" t="s">
-        <v>110</v>
-      </c>
-      <c r="F509" t="s">
-        <v>195</v>
-      </c>
-      <c r="G509" t="s">
-        <v>12</v>
-      </c>
-      <c r="H509" t="s">
-        <v>12</v>
+        <v>574</v>
       </c>
     </row>
     <row r="510" spans="1:8">
-      <c r="B510" t="s">
-        <v>574</v>
-      </c>
-      <c r="C510" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D510" t="s">
-        <v>160</v>
-      </c>
-      <c r="E510" t="s">
-        <v>134</v>
-      </c>
-      <c r="F510" t="s">
-        <v>146</v>
-      </c>
-      <c r="G510" t="s">
-        <v>12</v>
-      </c>
-      <c r="H510" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" t="s">
+      <c r="A510" t="s">
         <v>575</v>
       </c>
     </row>
+    <row r="511" spans="1:8">
+      <c r="B511" t="s">
+        <v>576</v>
+      </c>
+      <c r="C511" t="n">
+        <v>3.5133</v>
+      </c>
+      <c r="D511" t="s">
+        <v>577</v>
+      </c>
+      <c r="E511" t="s">
+        <v>578</v>
+      </c>
+      <c r="F511" t="s">
+        <v>579</v>
+      </c>
+      <c r="G511" t="s">
+        <v>580</v>
+      </c>
+      <c r="H511" t="s">
+        <v>581</v>
+      </c>
+    </row>
     <row r="513" spans="1:8">
-      <c r="B513" t="s">
-        <v>576</v>
-      </c>
-      <c r="C513" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="D513" t="s">
-        <v>577</v>
-      </c>
-      <c r="E513" t="s">
-        <v>578</v>
-      </c>
-      <c r="F513" t="s">
-        <v>134</v>
-      </c>
-      <c r="G513" t="s">
-        <v>12</v>
-      </c>
-      <c r="H513" t="s">
-        <v>12</v>
+      <c r="A513" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="514" spans="1:8">
       <c r="B514" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C514" t="n">
-        <v>3</v>
+        <v>3.611</v>
       </c>
       <c r="D514" t="s">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="E514" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="F514" t="s">
-        <v>580</v>
+        <v>11</v>
       </c>
       <c r="G514" t="s">
         <v>12</v>
@@ -7871,77 +7863,118 @@
         <v>12</v>
       </c>
     </row>
+    <row r="515" spans="1:8">
+      <c r="B515" t="s">
+        <v>584</v>
+      </c>
+      <c r="C515" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D515" t="s">
+        <v>165</v>
+      </c>
+      <c r="E515" t="s">
+        <v>166</v>
+      </c>
+      <c r="F515" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" t="s">
+        <v>12</v>
+      </c>
+      <c r="H515" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="516" spans="1:8">
-      <c r="A516" t="s">
-        <v>581</v>
+      <c r="B516" t="s">
+        <v>221</v>
+      </c>
+      <c r="C516" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D516" t="s">
+        <v>110</v>
+      </c>
+      <c r="E516" t="s">
+        <v>110</v>
+      </c>
+      <c r="F516" t="s">
+        <v>195</v>
+      </c>
+      <c r="G516" t="s">
+        <v>12</v>
+      </c>
+      <c r="H516" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:8">
       <c r="B517" t="s">
-        <v>229</v>
+        <v>585</v>
       </c>
       <c r="C517" t="n">
-        <v>3.118</v>
+        <v>3.556</v>
       </c>
       <c r="D517" t="s">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="E517" t="s">
-        <v>437</v>
+        <v>134</v>
       </c>
       <c r="F517" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G517" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="H517" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
-      <c r="B518" t="s">
-        <v>582</v>
-      </c>
-      <c r="C518" t="n">
-        <v>3.188</v>
-      </c>
-      <c r="D518" t="s">
-        <v>25</v>
-      </c>
-      <c r="E518" t="s">
-        <v>18</v>
-      </c>
-      <c r="F518" t="s">
-        <v>525</v>
-      </c>
-      <c r="G518" t="s">
-        <v>12</v>
-      </c>
-      <c r="H518" t="s">
-        <v>12</v>
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="520" spans="1:8">
-      <c r="A520" t="s">
-        <v>583</v>
+      <c r="B520" t="s">
+        <v>587</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="D520" t="s">
+        <v>588</v>
+      </c>
+      <c r="E520" t="s">
+        <v>589</v>
+      </c>
+      <c r="F520" t="s">
+        <v>134</v>
+      </c>
+      <c r="G520" t="s">
+        <v>12</v>
+      </c>
+      <c r="H520" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="521" spans="1:8">
       <c r="B521" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C521" t="n">
-        <v>2.667</v>
+        <v>3</v>
       </c>
       <c r="D521" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E521" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F521" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G521" t="s">
         <v>12</v>
@@ -7952,309 +7985,388 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="524" spans="1:8">
       <c r="B524" t="s">
+        <v>229</v>
+      </c>
+      <c r="C524" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="D524" t="s">
+        <v>454</v>
+      </c>
+      <c r="E524" t="s">
+        <v>441</v>
+      </c>
+      <c r="F524" t="s">
+        <v>120</v>
+      </c>
+      <c r="G524" t="s">
+        <v>121</v>
+      </c>
+      <c r="H524" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="B525" t="s">
+        <v>593</v>
+      </c>
+      <c r="C525" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="D525" t="s">
+        <v>25</v>
+      </c>
+      <c r="E525" t="s">
+        <v>18</v>
+      </c>
+      <c r="F525" t="s">
+        <v>529</v>
+      </c>
+      <c r="G525" t="s">
+        <v>12</v>
+      </c>
+      <c r="H525" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="B528" t="s">
+        <v>568</v>
+      </c>
+      <c r="C528" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D528" t="s">
+        <v>595</v>
+      </c>
+      <c r="E528" t="s">
+        <v>129</v>
+      </c>
+      <c r="F528" t="s">
+        <v>596</v>
+      </c>
+      <c r="G528" t="s">
+        <v>12</v>
+      </c>
+      <c r="H528" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="B531" t="s">
         <v>234</v>
       </c>
-      <c r="C524" t="n">
+      <c r="C531" t="n">
         <v>3.333</v>
       </c>
-      <c r="D524" t="s">
-        <v>587</v>
-      </c>
-      <c r="E524" t="s">
+      <c r="D531" t="s">
+        <v>598</v>
+      </c>
+      <c r="E531" t="s">
         <v>98</v>
       </c>
-      <c r="F524" t="s">
+      <c r="F531" t="s">
         <v>69</v>
       </c>
-      <c r="G524" t="s">
-        <v>12</v>
-      </c>
-      <c r="H524" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
-      <c r="A526" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="B527" t="s">
-        <v>589</v>
-      </c>
-      <c r="C527" t="n">
+      <c r="G531" t="s">
+        <v>12</v>
+      </c>
+      <c r="H531" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="B534" t="s">
+        <v>600</v>
+      </c>
+      <c r="C534" t="n">
         <v>3.389</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D534" t="s">
         <v>28</v>
       </c>
-      <c r="E527" t="s">
+      <c r="E534" t="s">
         <v>254</v>
       </c>
-      <c r="F527" t="s">
+      <c r="F534" t="s">
         <v>146</v>
       </c>
-      <c r="G527" t="s">
-        <v>12</v>
-      </c>
-      <c r="H527" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
-      <c r="A529" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
-      <c r="B530" t="s">
-        <v>591</v>
-      </c>
-      <c r="C530" t="n">
+      <c r="G534" t="s">
+        <v>12</v>
+      </c>
+      <c r="H534" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="B537" t="s">
+        <v>602</v>
+      </c>
+      <c r="C537" t="n">
         <v>3.125</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D537" t="s">
         <v>17</v>
       </c>
-      <c r="E530" t="s">
-        <v>480</v>
-      </c>
-      <c r="F530" t="s">
-        <v>525</v>
-      </c>
-      <c r="G530" t="s">
-        <v>12</v>
-      </c>
-      <c r="H530" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
-      <c r="A532" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
-      <c r="B533" t="s">
-        <v>589</v>
-      </c>
-      <c r="C533" t="n">
+      <c r="E537" t="s">
+        <v>484</v>
+      </c>
+      <c r="F537" t="s">
+        <v>529</v>
+      </c>
+      <c r="G537" t="s">
+        <v>12</v>
+      </c>
+      <c r="H537" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="B540" t="s">
+        <v>600</v>
+      </c>
+      <c r="C540" t="n">
         <v>3.458</v>
       </c>
-      <c r="D533" t="s">
-        <v>411</v>
-      </c>
-      <c r="E533" t="s">
-        <v>593</v>
-      </c>
-      <c r="F533" t="s">
-        <v>12</v>
-      </c>
-      <c r="G533" t="s">
-        <v>12</v>
-      </c>
-      <c r="H533" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="A535" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="B536" t="s">
-        <v>595</v>
-      </c>
-      <c r="C536" t="n">
+      <c r="D540" t="s">
+        <v>415</v>
+      </c>
+      <c r="E540" t="s">
+        <v>604</v>
+      </c>
+      <c r="F540" t="s">
+        <v>12</v>
+      </c>
+      <c r="G540" t="s">
+        <v>12</v>
+      </c>
+      <c r="H540" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="B543" t="s">
+        <v>606</v>
+      </c>
+      <c r="C543" t="n">
         <v>3.538</v>
       </c>
-      <c r="D536" t="s">
-        <v>537</v>
-      </c>
-      <c r="E536" t="s">
+      <c r="D543" t="s">
+        <v>541</v>
+      </c>
+      <c r="E543" t="s">
         <v>78</v>
       </c>
-      <c r="F536" t="s">
+      <c r="F543" t="s">
         <v>78</v>
       </c>
-      <c r="G536" t="s">
-        <v>12</v>
-      </c>
-      <c r="H536" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="A538" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="B539" t="s">
-        <v>597</v>
-      </c>
-      <c r="C539" t="n">
+      <c r="G543" t="s">
+        <v>12</v>
+      </c>
+      <c r="H543" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="B546" t="s">
+        <v>608</v>
+      </c>
+      <c r="C546" t="n">
         <v>3.9</v>
       </c>
-      <c r="D539" t="s">
+      <c r="D546" t="s">
         <v>138</v>
       </c>
-      <c r="E539" t="s">
+      <c r="E546" t="s">
         <v>106</v>
       </c>
-      <c r="F539" t="s">
-        <v>12</v>
-      </c>
-      <c r="G539" t="s">
-        <v>12</v>
-      </c>
-      <c r="H539" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="A541" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="B542" t="s">
-        <v>559</v>
-      </c>
-      <c r="C542" t="n">
+      <c r="F546" t="s">
+        <v>12</v>
+      </c>
+      <c r="G546" t="s">
+        <v>12</v>
+      </c>
+      <c r="H546" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="B549" t="s">
+        <v>563</v>
+      </c>
+      <c r="C549" t="n">
         <v>3.929</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D549" t="s">
         <v>14</v>
       </c>
-      <c r="E542" t="s">
+      <c r="E549" t="s">
         <v>15</v>
       </c>
-      <c r="F542" t="s">
-        <v>12</v>
-      </c>
-      <c r="G542" t="s">
-        <v>12</v>
-      </c>
-      <c r="H542" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="A544" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="B545" t="s">
-        <v>573</v>
-      </c>
-      <c r="C545" t="n">
+      <c r="F549" t="s">
+        <v>12</v>
+      </c>
+      <c r="G549" t="s">
+        <v>12</v>
+      </c>
+      <c r="H549" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="B552" t="s">
+        <v>584</v>
+      </c>
+      <c r="C552" t="n">
         <v>3.857</v>
       </c>
-      <c r="D545" t="s">
+      <c r="D552" t="s">
         <v>242</v>
       </c>
-      <c r="E545" t="s">
+      <c r="E552" t="s">
         <v>259</v>
       </c>
-      <c r="F545" t="s">
-        <v>12</v>
-      </c>
-      <c r="G545" t="s">
-        <v>12</v>
-      </c>
-      <c r="H545" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
-      <c r="A547" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="B548" t="s">
-        <v>601</v>
-      </c>
-      <c r="C548" t="n">
+      <c r="F552" t="s">
+        <v>12</v>
+      </c>
+      <c r="G552" t="s">
+        <v>12</v>
+      </c>
+      <c r="H552" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="B555" t="s">
+        <v>612</v>
+      </c>
+      <c r="C555" t="n">
         <v>3.737</v>
       </c>
-      <c r="D548" t="s">
+      <c r="D555" t="s">
         <v>209</v>
       </c>
-      <c r="E548" t="s">
-        <v>365</v>
-      </c>
-      <c r="F548" t="s">
-        <v>12</v>
-      </c>
-      <c r="G548" t="s">
-        <v>12</v>
-      </c>
-      <c r="H548" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
-      <c r="A550" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="B551" t="s">
-        <v>595</v>
-      </c>
-      <c r="C551" t="n">
+      <c r="E555" t="s">
+        <v>369</v>
+      </c>
+      <c r="F555" t="s">
+        <v>12</v>
+      </c>
+      <c r="G555" t="s">
+        <v>12</v>
+      </c>
+      <c r="H555" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="B558" t="s">
+        <v>606</v>
+      </c>
+      <c r="C558" t="n">
         <v>3.471</v>
       </c>
-      <c r="D551" t="s">
-        <v>437</v>
-      </c>
-      <c r="E551" t="s">
+      <c r="D558" t="s">
+        <v>441</v>
+      </c>
+      <c r="E558" t="s">
         <v>65</v>
       </c>
-      <c r="F551" t="s">
-        <v>12</v>
-      </c>
-      <c r="G551" t="s">
-        <v>12</v>
-      </c>
-      <c r="H551" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8">
-      <c r="A553" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="B554" t="s">
-        <v>604</v>
-      </c>
-      <c r="C554" t="n">
+      <c r="F558" t="s">
+        <v>12</v>
+      </c>
+      <c r="G558" t="s">
+        <v>12</v>
+      </c>
+      <c r="H558" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="B561" t="s">
+        <v>615</v>
+      </c>
+      <c r="C561" t="n">
         <v>3.6</v>
       </c>
-      <c r="D554" t="s">
+      <c r="D561" t="s">
         <v>165</v>
       </c>
-      <c r="E554" t="s">
-        <v>12</v>
-      </c>
-      <c r="F554" t="s">
+      <c r="E561" t="s">
+        <v>12</v>
+      </c>
+      <c r="F561" t="s">
         <v>166</v>
       </c>
-      <c r="G554" t="s">
-        <v>12</v>
-      </c>
-      <c r="H554" t="s">
+      <c r="G561" t="s">
+        <v>12</v>
+      </c>
+      <c r="H561" t="s">
         <v>12</v>
       </c>
     </row>
